--- a/data/season/current_season/Season_MVP.xlsx
+++ b/data/season/current_season/Season_MVP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D451"/>
+  <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Julie PLANES</t>
+          <t>Sarah HOWITT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TA106837</t>
+          <t>TA231</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -478,17 +478,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kester MCQUEEN</t>
+          <t>Sharyn NICHOLS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TA131752</t>
+          <t>88484</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Luis TORRES</t>
+          <t>Briony MOLONEY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA141331</t>
+          <t>TA138582</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kate MOORE</t>
+          <t>Cassie SPENCER</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TA112770</t>
+          <t>Ta92571</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -538,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>David WILES</t>
+          <t>Bobby SMALE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TA 22313</t>
+          <t>TA30115</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Marcelo ROSSI</t>
+          <t>Owain MATTHEWS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>66205</t>
+          <t>TA2035</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jason Farrell</t>
+          <t>Monique VAN CAMP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TA70972</t>
+          <t>TA10636</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -598,12 +598,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sarah HOWITT</t>
+          <t>Nicole WARD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TA231</t>
+          <t>TA5213</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -618,12 +618,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chris RYAN</t>
+          <t>Peter WALKER</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TA13317</t>
+          <t>TA69301</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -638,17 +638,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Matt GARVEY</t>
+          <t>Dylan CLOUGH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TA126982</t>
+          <t>TA96125</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Peter WALKER</t>
+          <t>Dean ASHLEY</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TA69301</t>
+          <t>TA133077</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -678,17 +678,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Megan CHAPPLE</t>
+          <t>Graham BRUCE</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TA131747</t>
+          <t>TA1276</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -698,17 +698,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Owain MATTHEWS</t>
+          <t>David WILES</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TA2035</t>
+          <t>TA 22313</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Anibal JUNCAL</t>
+          <t>Chris RYAN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TA77502</t>
+          <t>TA13317</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Angela SANDERSON</t>
+          <t>Matt GARVEY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TA84151</t>
+          <t>TA126982</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -758,17 +758,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vanessa WALLACE</t>
+          <t>Janice IREDALE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TA111626</t>
+          <t>TA109100</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -778,17 +778,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bobby SMALE</t>
+          <t>Emma OLSON-KEATING</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TA30115</t>
+          <t>TA60623</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Helen HUTCHINSON</t>
+          <t>Glenn GORICK</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TA107747</t>
+          <t>4848</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Janice IREDALE</t>
+          <t>Grace HENRY</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TA109100</t>
+          <t>TA86523</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -838,17 +838,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dylan CLOUGH</t>
+          <t>Glenn MCPHEE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TA96125</t>
+          <t>68726</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -858,12 +858,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Glenn GORICK</t>
+          <t>Luis TORRES</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4848</t>
+          <t>TA141331</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -878,17 +878,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Emma OLSON-KEATING</t>
+          <t>Kester MCQUEEN</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TA60623</t>
+          <t>TA131752</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Graham BRUCE</t>
+          <t>Anibal JUNCAL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TA1276</t>
+          <t>TA77502</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Grace HENRY</t>
+          <t>Vanessa WALLACE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TA86523</t>
+          <t>TA111626</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dean ASHLEY</t>
+          <t>Angela SANDERSON</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TA133077</t>
+          <t>TA84151</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -958,17 +958,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Glenn MCPHEE</t>
+          <t>Kate MOORE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>68726</t>
+          <t>TA112770</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -978,17 +978,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nicole WARD</t>
+          <t>Julie PLANES</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TA5213</t>
+          <t>TA106837</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -998,17 +998,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Monique VAN CAMP</t>
+          <t>Marcelo ROSSI</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TA10636</t>
+          <t>66205</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1018,17 +1018,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Briony MOLONEY</t>
+          <t>Helen HUTCHINSON</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TA138582</t>
+          <t>TA107747</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1038,17 +1038,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sharyn NICHOLS</t>
+          <t>Megan CHAPPLE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>88484</t>
+          <t>TA131747</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1058,57 +1058,57 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cassie SPENCER</t>
+          <t>Lisa Monaghan</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ta92571</t>
+          <t>TA54027</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lisa Monaghan</t>
+          <t>Andrew CROSS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TA54027</t>
+          <t>TA10311</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rachael MCCARTHY</t>
+          <t>Tanya WOOD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TA114910</t>
+          <t>TA124098</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1118,17 +1118,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Amanda BEHRENDT</t>
+          <t>Lucy MASON</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TA73065</t>
+          <t>TA124865</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1138,17 +1138,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Andrew CROSS</t>
+          <t>Kerry MORRIS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TA10311</t>
+          <t>TA54726</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nicole SHEATHER</t>
+          <t>Amanda BEHRENDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TA105430</t>
+          <t>TA73065</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1178,17 +1178,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cameron ARNOLD</t>
+          <t>Phil LYNCH</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TA109387</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1198,12 +1198,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nicole LENNON</t>
+          <t>Elissa HUGHES</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A129706</t>
+          <t>TA120070</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Elissa HUGHES</t>
+          <t>Ross COCHRANE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TA120070</t>
+          <t>TA39622</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1238,17 +1238,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gary GODDEN</t>
+          <t>Rachael MCCARTHY</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TA126400</t>
+          <t>TA114910</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1258,17 +1258,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fasong KIM</t>
+          <t>Nicole SHEATHER</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TA115893</t>
+          <t>TA105430</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1278,17 +1278,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Shelby HOOD</t>
+          <t>Mike STEINBERG</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TA109103</t>
+          <t>TA4810</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1298,17 +1298,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mike STEINBERG</t>
+          <t>Graham LATTA</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TA4810</t>
+          <t>TA12799</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1318,17 +1318,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Graham LATTA</t>
+          <t>Jasmine RAPER</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TA12799</t>
+          <t>TA136601</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1338,17 +1338,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Greg PRIDE</t>
+          <t>Adam STROUD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TA1869</t>
+          <t>TA13924</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1358,12 +1358,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Phil LYNCH</t>
+          <t>Alex PREVITERA</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>TA114243</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1378,17 +1378,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sandra REID</t>
+          <t>Shelby HOOD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TA58853</t>
+          <t>TA109103</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1398,17 +1398,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jasmine RAPER</t>
+          <t>Sandra REID</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TA136601</t>
+          <t>TA58853</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1418,12 +1418,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Damian WONG</t>
+          <t>Cameron ARNOLD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TA92797</t>
+          <t>TA109387</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1438,17 +1438,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Malcolm HEATH</t>
+          <t>Samuel MCNAUGHTON</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>120164</t>
+          <t>TA126319</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -1458,17 +1458,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lucy MASON</t>
+          <t>Nicole LENNON</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TA124865</t>
+          <t>A129706</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1478,17 +1478,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Kerry MORRIS</t>
+          <t>Damian WONG</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TA54726</t>
+          <t>TA92797</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1498,17 +1498,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Samuel MCNAUGHTON</t>
+          <t>Malcolm HEATH</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TA126319</t>
+          <t>120164</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1518,17 +1518,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Alex PREVITERA</t>
+          <t>Fasong KIM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TA114243</t>
+          <t>TA115893</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1538,17 +1538,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Tanya WOOD</t>
+          <t>Gary GODDEN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TA124098</t>
+          <t>TA126400</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1558,17 +1558,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Adam STROUD</t>
+          <t>Greg PRIDE</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TA13924</t>
+          <t>TA1869</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1578,12 +1578,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ross COCHRANE</t>
+          <t>Jasmin RAMSAY</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TA39622</t>
+          <t>TA141563</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1592,23 +1592,23 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Michelle CHEN</t>
+          <t>Jane SPALDING</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TA122033</t>
+          <t>TA41545</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1618,12 +1618,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bonnie O'DONNELL</t>
+          <t>Jake HUMMERSTON</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TA140464</t>
+          <t>TA7546</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1638,17 +1638,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Victoria JAGUSCH</t>
+          <t>Daniel HOWITT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TA140602</t>
+          <t>TA81363</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1658,17 +1658,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Anthony LARBALESTIER</t>
+          <t>Peter DALEY</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TA119845</t>
+          <t>TA92225</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1678,17 +1678,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Andy DISLEY</t>
+          <t>Nicola HUTCHINSON</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TA106637</t>
+          <t>TA3408</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1698,17 +1698,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Anthony WILSON</t>
+          <t>Michelle CHEN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ta60909</t>
+          <t>TA122033</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1718,17 +1718,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Helaena NICHOLLS</t>
+          <t>Morgan PIKE</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TA133180</t>
+          <t>TA109343</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1738,17 +1738,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Morgan PIKE</t>
+          <t>Diego UZZUN</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TA109343</t>
+          <t>TA118853</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1758,12 +1758,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Jake HUMMERSTON</t>
+          <t>Chris WOOLDRIDGE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TA7546</t>
+          <t>Ta4236</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1778,17 +1778,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jane SPALDING</t>
+          <t>Chelsea BROWN</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TA41545</t>
+          <t>TA130724</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1798,17 +1798,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Nicola HUTCHINSON</t>
+          <t>Susan MCPHERSON</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TA3408</t>
+          <t>TA140528</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1818,17 +1818,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Maddalena ROSSI</t>
+          <t>Craig PARKES</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TA77928</t>
+          <t>TA 121996</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1838,17 +1838,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Jasmin RAMSAY</t>
+          <t>Bonnie O'DONNELL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TA141563</t>
+          <t>TA140464</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1858,17 +1858,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Peter DALEY</t>
+          <t>Anthony WILSON</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TA92225</t>
+          <t>ta60909</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1878,17 +1878,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Diego UZZUN</t>
+          <t>Anthony LARBALESTIER</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TA118853</t>
+          <t>TA119845</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1898,17 +1898,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Daniel HOWITT</t>
+          <t>Helaena NICHOLLS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TA81363</t>
+          <t>TA133180</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1918,17 +1918,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Chelsea BROWN</t>
+          <t>Kevin DIXON</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TA130724</t>
+          <t>TA4314</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1958,17 +1958,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Craig PARKES</t>
+          <t>Maddalena ROSSI</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TA 121996</t>
+          <t>TA77928</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1978,17 +1978,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Kevin DIXON</t>
+          <t>Andy DISLEY</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TA4314</t>
+          <t>TA106637</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1998,17 +1998,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Susan MCPHERSON</t>
+          <t>Victoria JAGUSCH</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TA140528</t>
+          <t>TA140602</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2018,37 +2018,37 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Chris WOOLDRIDGE</t>
+          <t>Kylie DONNELLAN</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ta4236</t>
+          <t>TA97330</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Yareni GUERRERO</t>
+          <t>Will DAVISON</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TA102224</t>
+          <t>TA122803</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2058,17 +2058,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Kate HUMMERSTON</t>
+          <t>Lucus AU</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TA7549</t>
+          <t>TA72949</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -2078,17 +2078,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kylie DONNELLAN</t>
+          <t>Vicki SAPOUNTZIS</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TA97330</t>
+          <t>TA73800</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -2098,17 +2098,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Lucus AU</t>
+          <t>Thomas GREEN</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TA72949</t>
+          <t>TA137093</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2118,12 +2118,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Jo COPE</t>
+          <t>Adam HUMMERSTON</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TA79607</t>
+          <t>TA7545</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2138,17 +2138,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Robert O'CONNOR</t>
+          <t>Jo COPE</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TA120712</t>
+          <t>TA79607</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -2158,17 +2158,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Michael SMITH</t>
+          <t>Joshua SMYTH</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>36413</t>
+          <t>TA124153</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2178,17 +2178,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Max GAUBERT</t>
+          <t>Yareni GUERRERO</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TA102949</t>
+          <t>TA102224</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2198,17 +2198,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Daniel JAMES</t>
+          <t>Danielle MATTHEWS</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TA3369</t>
+          <t>TA68789</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2218,17 +2218,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Danielle MATTHEWS</t>
+          <t>Elouise BACON</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TA68789</t>
+          <t>TA137584</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2238,17 +2238,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Audrey HALL</t>
+          <t>Michael SMITH</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TA138774</t>
+          <t>36413</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2258,17 +2258,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Will DAVISON</t>
+          <t>Debbie FRANSEN</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TA122803</t>
+          <t>53806</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -2278,17 +2278,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Vicki SAPOUNTZIS</t>
+          <t>Robert O'CONNOR</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TA73800</t>
+          <t>TA120712</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2298,17 +2298,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Joshua SMYTH</t>
+          <t>Bruce THOMAS</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TA124153</t>
+          <t>ta26415</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2338,17 +2338,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Bruce THOMAS</t>
+          <t>Daniel JAMES</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ta26415</t>
+          <t>TA3369</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -2358,17 +2358,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Thomas GREEN</t>
+          <t>Harper COOKE</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TA137093</t>
+          <t>TA134571</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -2378,17 +2378,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Elouise BACON</t>
+          <t>Estelle LIFRAN</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TA137584</t>
+          <t>TA115259</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2398,12 +2398,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Estelle LIFRAN</t>
+          <t>Max GAUBERT</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TA115259</t>
+          <t>TA102949</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2418,17 +2418,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Graeme BEATTIE</t>
+          <t>Kate HUMMERSTON</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TA36979</t>
+          <t>TA7549</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2438,17 +2438,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Harper COOKE</t>
+          <t>Graeme BEATTIE</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TA134571</t>
+          <t>TA36979</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2458,12 +2458,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Debbie FRANSEN</t>
+          <t>Audrey HALL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>53806</t>
+          <t>TA138774</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2478,12 +2478,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Adam HUMMERSTON</t>
+          <t>Fran WALSH</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TA7545</t>
+          <t>TA92812</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2492,43 +2492,43 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Adam White</t>
+          <t>Melissa LIND</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TA120995</t>
+          <t>TA105429</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Juliet CRAWFORD</t>
+          <t>Emma BEUKERS</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TA110213</t>
+          <t>TA137637</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2538,17 +2538,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Chris CLELAND</t>
+          <t>Max MULLEN</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TA79987</t>
+          <t>TA117952</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -2558,17 +2558,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>John HAMILTON</t>
+          <t>James KNIGHT</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TA103636</t>
+          <t>TA4163</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2578,17 +2578,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Max MULLEN</t>
+          <t>Ingrid MCPHEE</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TA117952</t>
+          <t>TA 68629</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2618,12 +2618,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Jocie EVISON</t>
+          <t>Lauren DREDGE</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TA5860</t>
+          <t>TA115848</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2638,17 +2638,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lauren WILSON</t>
+          <t>John HAMILTON</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TA82934</t>
+          <t>TA103636</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2658,12 +2658,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Lauren DREDGE</t>
+          <t>Jocie EVISON</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TA115848</t>
+          <t>TA5860</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2678,17 +2678,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Rodney KING</t>
+          <t>Juliet CRAWFORD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TA130259</t>
+          <t>TA110213</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2698,17 +2698,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Darren QUARRELL</t>
+          <t>Rodney KING</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TA11821</t>
+          <t>TA130259</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2718,17 +2718,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Emma BEUKERS</t>
+          <t>Richard Nicholas MORRIS</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TA137637</t>
+          <t>TA 29725</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2738,17 +2738,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Fran WALSH</t>
+          <t>Darren QUARRELL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TA92812</t>
+          <t>TA11821</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2758,17 +2758,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>James KNIGHT</t>
+          <t>Chris CLELAND</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TA4163</t>
+          <t>TA79987</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2778,17 +2778,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Ingrid MCPHEE</t>
+          <t>Alexis GOUPIL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TA 68629</t>
+          <t>TA118128</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2798,17 +2798,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Melissa LIND</t>
+          <t>Thierry MASQUILIER</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TA105429</t>
+          <t>TA 54195</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2818,17 +2818,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Richard Nicholas MORRIS</t>
+          <t>Lauren WILSON</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TA 29725</t>
+          <t>TA82934</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2838,77 +2838,77 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Thierry MASQUILIER</t>
+          <t>Tim Mackney</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TA 54195</t>
+          <t>TA18075</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Alexis GOUPIL</t>
+          <t>John VAN OMMEN</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TA118128</t>
+          <t>TA68424</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Tim Mackney</t>
+          <t>Kirsty DALEY</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TA18075</t>
+          <t>TA131129</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Steve NICHOLS</t>
+          <t>Trevor WATSON</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TA103520</t>
+          <t>TA69319</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2918,17 +2918,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Scott Salmon</t>
+          <t>Trevor POTTS</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TA65146</t>
+          <t>TA83870</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2938,17 +2938,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Shannon QUARTLY</t>
+          <t>Lee BRETT</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TA8577</t>
+          <t>TA24291</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2958,12 +2958,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Bronwen Tyler</t>
+          <t>Jessica Purbrick</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TA27576</t>
+          <t>TA106608</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2978,17 +2978,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Brian Chandler</t>
+          <t>Maisie Evans</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TA27036</t>
+          <t>TA100801</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tomaree Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2998,17 +2998,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Isabel HERRICK</t>
+          <t>Harry FINGLETON</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TA116154</t>
+          <t>TA118839</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3018,17 +3018,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Scott Marzato</t>
+          <t>Melissa Boucher</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TA26724</t>
+          <t>TA69921</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3038,17 +3038,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Trevor POTTS</t>
+          <t>Mark Wilson</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TA83870</t>
+          <t>TA79858</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3058,17 +3058,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Mina BASSILIOUS</t>
+          <t>Jane Mountford</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TA95330</t>
+          <t>TA1543</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3078,17 +3078,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Nathan Stewart</t>
+          <t>Manon GUNDERSON-BRIGGS</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TA95827</t>
+          <t>TA130173</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Tomaree Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3098,12 +3098,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Gary Beveridge</t>
+          <t>Meg Isbester</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TA89340</t>
+          <t>TA112688</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3118,17 +3118,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Fiona Pardeaux</t>
+          <t>Jarrod CRUMP</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TA122508</t>
+          <t>TA14687</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3138,12 +3138,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Gina NGAN</t>
+          <t>Jess BENNETT</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TA128679</t>
+          <t>TA132561</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3158,17 +3158,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Trevor WATSON</t>
+          <t>Emily Lewis</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TA69319</t>
+          <t>TA80425</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3178,17 +3178,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Monty Dixon</t>
+          <t>Gina NGAN</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TA90106</t>
+          <t>TA128679</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -3198,12 +3198,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Chris Jeffery</t>
+          <t>Hamish Longmuir</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TA89627</t>
+          <t>TA90013</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3218,17 +3218,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Manon GUNDERSON-BRIGGS</t>
+          <t>Jason Farrell</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TA130173</t>
+          <t>TA70972</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3238,17 +3238,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Maisie Evans</t>
+          <t>Jennifer Cox</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TA100801</t>
+          <t>TA20150</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3258,17 +3258,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Jennifer Cox</t>
+          <t>Isabel HERRICK</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TA20150</t>
+          <t>TA116154</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3278,17 +3278,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mark Wilson</t>
+          <t>Jessica Backes</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TA79858</t>
+          <t>TA69966</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3298,17 +3298,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Cooper Lee</t>
+          <t>Paul STEIN</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TA69389</t>
+          <t>TA135977</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3318,17 +3318,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Colin Reyburn</t>
+          <t>Nicky Western</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TA110011</t>
+          <t>TA8015</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Singleton Triathlon Club</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3338,17 +3338,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Luke Patchett</t>
+          <t>Mina BASSILIOUS</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TA110798</t>
+          <t>TA95330</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3358,17 +3358,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Kylie Scholz</t>
+          <t>Michelle WATTS</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TA7098</t>
+          <t>TA121967</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3378,17 +3378,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Leedy Mackney</t>
+          <t>Monty Dixon</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TA81383</t>
+          <t>TA90106</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Forster Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3398,17 +3398,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Harry FINGLETON</t>
+          <t>Nathan Stewart</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TA118839</t>
+          <t>TA95827</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Tomaree Triathlon Club</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3418,17 +3418,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Jarrod CRUMP</t>
+          <t>Colin Reyburn</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TA14687</t>
+          <t>TA110011</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3438,12 +3438,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Emily Lewis</t>
+          <t>Scott Marzato</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TA80425</t>
+          <t>TA26724</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3458,17 +3458,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Jamie Richardson</t>
+          <t>Brian Chandler</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TA43615</t>
+          <t>TA27036</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Tomaree Triathlon Club</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3478,17 +3478,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Jane Mountford</t>
+          <t>Shannon QUARTLY</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TA1543</t>
+          <t>TA8577</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3498,17 +3498,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Eden STRYDOM</t>
+          <t>Steve NICHOLS</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TA130976</t>
+          <t>TA103520</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3518,17 +3518,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Hamish Longmuir</t>
+          <t>Richard Roxin</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TA90013</t>
+          <t>TA10111</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3538,17 +3538,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Derek MULHEARN</t>
+          <t>Dennis Parker</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TA12422</t>
+          <t>TA70631</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3558,17 +3558,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Michelle WATTS</t>
+          <t>Regina Stoker</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TA121967</t>
+          <t>TA130010</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3578,17 +3578,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Regina Stoker</t>
+          <t>Derek MULHEARN</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TA130010</t>
+          <t>TA12422</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3598,17 +3598,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Dennis Parker</t>
+          <t>Eden STRYDOM</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TA70631</t>
+          <t>TA130976</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3618,17 +3618,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Melissa Boucher</t>
+          <t>Bronwen Tyler</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TA69921</t>
+          <t>TA27576</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3638,72 +3638,72 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Rohan Barnes</t>
+          <t>Claire Dedden</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TA21800</t>
+          <t>TA60176</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Madeline Platt</t>
+          <t>Peter Sinclair</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TA91913</t>
+          <t>TA132865</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Jessica Backes</t>
+          <t>Chad Ashton</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TA69966</t>
+          <t>TA125552</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Tomaree Triathlon Club</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Jessica Purbrick</t>
+          <t>Craig Leggett</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TA106608</t>
+          <t>TA2705983</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3712,38 +3712,38 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Jess BENNETT</t>
+          <t>Dennis Parker</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TA132561</t>
+          <t>T706319</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>John Page</t>
+          <t>Scott Taylor</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TA122283</t>
+          <t>TA65636</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3752,118 +3752,118 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>John VAN OMMEN</t>
+          <t>David Carter</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TA68424</t>
+          <t>TA66019</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Singleton Triathlon Club</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Paul STEIN</t>
+          <t>Kizzy Curran</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TA135977</t>
+          <t>Ta131162</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Meg Isbester</t>
+          <t>Josy Marsh</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TA112688</t>
+          <t>TA125522</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Nicky Western</t>
+          <t>Tc Campbell</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TA8015</t>
+          <t>TA16727</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Tomaree Triathlon Club</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Lee BRETT</t>
+          <t>Ken Kirk</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TA24291</t>
+          <t>TA7928</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Richard Roxin</t>
+          <t>Kari Armitage</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TA10111</t>
+          <t>TA5743</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3872,58 +3872,58 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Kirsty DALEY</t>
+          <t>Michelle Barnes</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TA131129</t>
+          <t>TA18393</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Peter Sinclair</t>
+          <t>Ryland STANMORE</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TA132865</t>
+          <t>TA133417</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Claire Dedden</t>
+          <t>Samuel Dodds</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TA60176</t>
+          <t>TA123458</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3932,118 +3932,118 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Kari Armitage</t>
+          <t>Stuart Plant</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TA5743</t>
+          <t>TA116625</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Singleton Triathlon Club</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Stuart Ramsay</t>
+          <t>Bob NICHOLSON</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TA89673</t>
+          <t>8178</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Greg Mullaly</t>
+          <t>Samuel Dodds</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TA15904</t>
+          <t>TA103924</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Forster Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Scott Taylor</t>
+          <t>Samantha MULHEARN</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TA65636</t>
+          <t>TA131466</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Brett Blake</t>
+          <t>Michaelie Schweinberger</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TA18851</t>
+          <t>TA105233</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Jason Levey</t>
+          <t>Robert Mellor</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TA129619</t>
+          <t>TA68060</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4052,38 +4052,38 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Ken Kirk</t>
+          <t>Adam White</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TA7928</t>
+          <t>TA120995</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Chad Ashton</t>
+          <t>Terry Withers</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TA125552</t>
+          <t>TA16623</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4092,38 +4092,38 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Tc Campbell</t>
+          <t>Todd SPOKES</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TA16727</t>
+          <t>TA106715</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Tomaree Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Kizzy Curran</t>
+          <t>Theodore Bullock</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Ta131162</t>
+          <t>TA130051</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4132,118 +4132,118 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Craig Leggett</t>
+          <t>Leedy Mackney</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TA2705983</t>
+          <t>TA81383</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Michaelie Schweinberger</t>
+          <t>Mark Collins</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TA105233</t>
+          <t>TA9872</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Forster Triathlon Club</t>
+          <t>Singleton Triathlon Club</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Tony Gadd</t>
+          <t>Liz SHEPHERD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TA105459</t>
+          <t>Ta128035</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Josy Marsh</t>
+          <t>Leighton HOWARD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TA125522</t>
+          <t>TA53995</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>William Apps</t>
+          <t>Ian BLAIKLOCK</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TA43864</t>
+          <t>Ta12689</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Dennis Parker</t>
+          <t>Greg Broadley</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>T706319</t>
+          <t>TA28807</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4252,63 +4252,63 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>David Carter</t>
+          <t>Rebecca Parkes</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TA66019</t>
+          <t>TA106801</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Alex Lean</t>
+          <t>Christian WYBORN</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TA130709</t>
+          <t>TA107922</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Stuart Plant</t>
+          <t>David SULLIVAN</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TA116625</t>
+          <t>TA14759</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -4318,17 +4318,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Bob NICHOLSON</t>
+          <t>Erin JONES</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>8178</t>
+          <t>TA92208</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -4338,32 +4338,32 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Samantha MULHEARN</t>
+          <t>Hugh Bonney</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TA131466</t>
+          <t>TA16147</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Tomaree Triathlon Club</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Samuel Dodds</t>
+          <t>Mark Partridge</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TA123458</t>
+          <t>TA55615</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4372,18 +4372,18 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Chris Uncomb</t>
+          <t>Renae Luton</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TA129589</t>
+          <t>TA117625</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4392,158 +4392,158 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Ryland STANMORE</t>
+          <t>Scott Salmon</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TA133417</t>
+          <t>TA65146</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Samuel Dodds</t>
+          <t>Billy Rae</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TA103924</t>
+          <t>TA19050</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Robert Mellor</t>
+          <t>Emmanuel Genlot</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TA68060</t>
+          <t>TA111676</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Forster Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Tim Mackney</t>
+          <t>Jess Munro</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TA18075</t>
+          <t>TA109860</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Forster Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Greg Broadley</t>
+          <t>Ara Reading</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TA28807</t>
+          <t>Ta89917</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Grady Platt</t>
+          <t>David Harris</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TA91912</t>
+          <t>TA119958</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Emma Stallard</t>
+          <t>David Smith</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TA89691</t>
+          <t>TA13890</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Theodore Bullock</t>
+          <t>Wade Vincent</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TA130051</t>
+          <t>TA103746</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4552,298 +4552,298 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Andrew Stace</t>
+          <t>Juan Cordero</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TA121038</t>
+          <t>TA135212</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Forster Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Michaelie Schweinberger</t>
+          <t>Clay Murphy</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TA105233</t>
+          <t>TA80136</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Michelle Barnes</t>
+          <t>Blake Parker</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TA18393</t>
+          <t>TA120709</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Tomaree Triathlon Club</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Leedy Mackney</t>
+          <t>Craig Gardiner</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TA81383</t>
+          <t>TA76407</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Leighton HOWARD</t>
+          <t>Bernadette Williamson</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TA53995</t>
+          <t>TA122814</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Singleton Triathlon Club</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Mark Collins</t>
+          <t>Bridget FELL</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TA9872</t>
+          <t>TA65658</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Christian WYBORN</t>
+          <t>Barton CHAMPNESS</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TA107922</t>
+          <t>TA112255</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Liz SHEPHERD</t>
+          <t>Jonathon TAN</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ta128035</t>
+          <t>TA69350</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Rebecca Parkes</t>
+          <t>Teagan BETTERIDGE</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TA106801</t>
+          <t>TA57086</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Ian BLAIKLOCK</t>
+          <t>Jonathon Thomson</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ta12689</t>
+          <t>TA5785</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Todd SPOKES</t>
+          <t>Kathryn KING</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TA106715</t>
+          <t>TA14217</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Terry Withers</t>
+          <t>Marty Henry</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TA16623</t>
+          <t>TA20442</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Tomaree Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Erin JONES</t>
+          <t>Joshua Jacobs</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TA92208</t>
+          <t>TA135033</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>David SULLIVAN</t>
+          <t>Casey Preston</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TA14759</t>
+          <t>TA86219</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>David Harris</t>
+          <t>Beth Woollett</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TA119958</t>
+          <t>TA128341</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4852,218 +4852,218 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Ryan Evans</t>
+          <t>Danielle White</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TA109395</t>
+          <t>TA114562</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Danielle Clarke</t>
+          <t>Roy GIBBS</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TA40420</t>
+          <t>TA107746</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Forster Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Kane Bradley</t>
+          <t>Brad Merchant</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TA83821</t>
+          <t>TA104223</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Forster Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Scott Salmon</t>
+          <t>Chris Howson</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TA65146</t>
+          <t>TA87953</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>David Smith</t>
+          <t>Cindy Wilks</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TA13890</t>
+          <t>TA24261</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Juan Cordero</t>
+          <t>Steven Beach</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TA135212</t>
+          <t>TA70847</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Tomaree Triathlon Club</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Wade Vincent</t>
+          <t>Nick Slater</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TA103746</t>
+          <t>TA105547</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Singleton Triathlon Club</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Ara Reading</t>
+          <t>Paul Franks</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ta89917</t>
+          <t>TA4542</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Mitchell Jeffery</t>
+          <t>Liam Pritchard</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TA89628</t>
+          <t>TA91510</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Emmanuel Genlot</t>
+          <t>Mathew Holz</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TA111676</t>
+          <t>TA114705</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Billy Rae</t>
+          <t>Fiona Pardeaux</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TA19050</t>
+          <t>TA122508</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5072,158 +5072,158 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Renae Luton</t>
+          <t>Gary Beveridge</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>TA117625</t>
+          <t>TA89340</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Hugh Bonney</t>
+          <t>Mitchell Jeffery</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TA16147</t>
+          <t>TA89628</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Tomaree Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Jess Munro</t>
+          <t>Ben LEAR</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TA109860</t>
+          <t>TA129716</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Mark Partridge</t>
+          <t>Stephen BAILEY</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TA55615</t>
+          <t>TA128807</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Roy GIBBS</t>
+          <t>Stelios KOUTSOUMBIS</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TA107746</t>
+          <t>TA130901</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Kathryn KING</t>
+          <t>Scott HAMER</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TA14217</t>
+          <t>Ta138814</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Stacey Hall</t>
+          <t>Steffen Durie</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TA115385</t>
+          <t>TA88586</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Bridget FELL</t>
+          <t>Jessica OPPENHEIM</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>TA65658</t>
+          <t>Ta136204</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5232,78 +5232,78 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Casey Preston</t>
+          <t>Lyn ATKIN</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TA86219</t>
+          <t>TA5734</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Bernadette Williamson</t>
+          <t>Wolf Skafte-Zauss</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TA122814</t>
+          <t>TA116648</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Blake Parker</t>
+          <t>Abi NEWTON</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TA120709</t>
+          <t>TA134233</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Tomaree Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Beth Woollett</t>
+          <t>Ashleigh Parkes</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TA128341</t>
+          <t>TA136233</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5312,118 +5312,118 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Danielle White</t>
+          <t>Andre Bremmer</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TA114562</t>
+          <t>TA54436</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Tim Gregor</t>
+          <t>Will Smith</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TA81008</t>
+          <t>TA7604</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Forster Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Teagan BETTERIDGE</t>
+          <t>David Webb</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TA57086</t>
+          <t>TA23197</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Troy Ridgley</t>
+          <t>David Mitchell</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>TA110419</t>
+          <t>TA119009</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Barton CHAMPNESS</t>
+          <t>Matthew Kemsley</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>TA112255</t>
+          <t>TA81723</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Joshua Jacobs</t>
+          <t>Jose Justa</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>TA135033</t>
+          <t>TA113757</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -5432,298 +5432,298 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Jonathon TAN</t>
+          <t>Daniel Kiriakidis</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TA69350</t>
+          <t>TA26935</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Clay Murphy</t>
+          <t>Luis VERBEECK</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TA80136</t>
+          <t>Ta133152</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Craig Gardiner</t>
+          <t>Harriet MACDONALD</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TA76407</t>
+          <t>TA138934</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Jonathon Thomson</t>
+          <t>Hayden QUINN</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TA5785</t>
+          <t>TA48807</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Marty Henry</t>
+          <t>Laura HIGGINS</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TA20442</t>
+          <t>TA73506</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Steven Beach</t>
+          <t>Tim Gregor</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TA70847</t>
+          <t>TA45169</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Tomaree Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Brad Merchant</t>
+          <t>Tadhg DONNELLAN</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TA104223</t>
+          <t>TA97331</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Gary Beveridge</t>
+          <t>Alex Lim</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TA89340</t>
+          <t>TA58329</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Fiona Pardeaux</t>
+          <t>Justin HOYER</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TA122508</t>
+          <t>TA127298</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Mitchell Jeffery</t>
+          <t>Fiona MACKENZIE</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TA89628</t>
+          <t>TA75609</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Nick Slater</t>
+          <t>Rolf BEHRENS</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TA105547</t>
+          <t>TA6642</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Mathew Holz</t>
+          <t>Emily KEMPSON</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TA114705</t>
+          <t>TA5798</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Cindy Wilks</t>
+          <t>Bradley SCULLEY</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TA24261</t>
+          <t>TA131744</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Paul Franks</t>
+          <t>Ben LOWE</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TA4542</t>
+          <t>TA138064</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Liam Pritchard</t>
+          <t>Chris Wood</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TA91510</t>
+          <t>TA95838</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5732,98 +5732,98 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Chris Howson</t>
+          <t>Gary TALL</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TA87953</t>
+          <t>TA8843</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Andre Bremmer</t>
+          <t>Matt HUNT</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TA54436</t>
+          <t>TA8383</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Kyle Gallagher</t>
+          <t>Richard Palmer</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TA112863</t>
+          <t>TA109340</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Lyn ATKIN</t>
+          <t>Derek Wagnitz</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TA5734</t>
+          <t>TA69518</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Tomaree Triathlon Club</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Wolf Skafte-Zauss</t>
+          <t>Rory Symonds</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TA116648</t>
+          <t>TA62688</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5832,58 +5832,58 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Stelios KOUTSOUMBIS</t>
+          <t>Tristan Marshall</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TA130901</t>
+          <t>TA83352</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Forster Triathlon Club</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Steffen Durie</t>
+          <t>Tiffany JONES</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TA88586</t>
+          <t>TA12788</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Ben LEAR</t>
+          <t>Todd ALEXIS</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TA129716</t>
+          <t>TA44756</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5892,58 +5892,58 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Ashleigh Parkes</t>
+          <t>Timothy HALL</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TA136233</t>
+          <t>TA110996</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Jessica OPPENHEIM</t>
+          <t>Andrew Speechly</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ta136204</t>
+          <t>TA61918</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Singleton Triathlon Club</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Scott HAMER</t>
+          <t>Andrew MACKENZIE</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ta138814</t>
+          <t>TA7192</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5952,38 +5952,38 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Abi NEWTON</t>
+          <t>Andrew Jeffrey</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TA134233</t>
+          <t>TA122297</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Stephen BAILEY</t>
+          <t>Andrew HOLT</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TA128807</t>
+          <t>TA90758</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5992,118 +5992,118 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Will Smith</t>
+          <t>Andrew Carney</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TA7604</t>
+          <t>Ta84026</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Tomaree Triathlon Club</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>David Webb</t>
+          <t>Thomas VACCHER</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TA23197</t>
+          <t>TA137952</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Daniel Kiriakidis</t>
+          <t>Annabelle HAYES</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>TA26935</t>
+          <t>TA141316</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Matthew Kemsley</t>
+          <t>Angus BUNCLE</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TA81723</t>
+          <t>TA114218</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>David Mitchell</t>
+          <t>Tim BYRNE</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>TA119009</t>
+          <t>TA116511</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Jose Justa</t>
+          <t>Allen Pearson</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TA113757</t>
+          <t>TA8293</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6112,38 +6112,38 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Laura HIGGINS</t>
+          <t>Andrew COOKE</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>TA73506</t>
+          <t>TA134569</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Gary TALL</t>
+          <t>Andrew COATES</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>TA8843</t>
+          <t>TA122644</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6152,38 +6152,38 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Harriet MACDONALD</t>
+          <t>Aileen DAVIDSON</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TA138934</t>
+          <t>TA40663</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Justin HOYER</t>
+          <t>Alex MOYNIHAN</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TA127298</t>
+          <t>TA133055</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6192,158 +6192,158 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Alex Lim</t>
+          <t>Alex WAITE</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TA58329</t>
+          <t>TA115249</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Luis VERBEECK</t>
+          <t>Alexander MACKENZIE</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Ta133152</t>
+          <t>TA90713</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Tim Gregor</t>
+          <t>John DJUKANOVIC</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>TA45169</t>
+          <t>TA102229</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Hayden QUINN</t>
+          <t>Joel Hodge</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TA48807</t>
+          <t>TA114222</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Emily KEMPSON</t>
+          <t>Jodie WILLS</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TA5798</t>
+          <t>TA127075</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Bradley SCULLEY</t>
+          <t>Madeleine COMAN</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>TA131744</t>
+          <t>135796</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Richard Palmer</t>
+          <t>Luke TARGETT</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TA109340</t>
+          <t>TA23020</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Rolf BEHRENS</t>
+          <t>Leon MORICEAU</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>TA6642</t>
+          <t>TA118236</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6352,38 +6352,38 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Chris Wood</t>
+          <t>Leon Dawes</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TA95838</t>
+          <t>TA107220</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Tadhg DONNELLAN</t>
+          <t>Lauren BURKE</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TA97331</t>
+          <t>134822</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6392,18 +6392,18 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Fiona MACKENZIE</t>
+          <t>Yago CARREIRA</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TA75609</t>
+          <t>TA141320</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6412,103 +6412,103 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Matt HUNT</t>
+          <t>Kylie Mcpherson</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TA8383</t>
+          <t>TA88592</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Ben LOWE</t>
+          <t>Kyle Gallagher</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TA138064</t>
+          <t>TA112863</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Derek Wagnitz</t>
+          <t>Keiran RAMSAY</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TA69518</t>
+          <t>TA4216</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Tomaree Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Rory Symonds</t>
+          <t>Wojt Janowski</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TA62688</t>
+          <t>TA122313</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Thomas VACCHER</t>
+          <t>Kealey Pugsley</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TA137952</t>
+          <t>TA54974</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -6518,17 +6518,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Tiffany JONES</t>
+          <t>Wendy LONDAL</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TA12788</t>
+          <t>TA118578</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -6538,17 +6538,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Timothy HALL</t>
+          <t>Will MCCLOY</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>TA110996</t>
+          <t>TA89228</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -6558,17 +6558,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Tim BYRNE</t>
+          <t>Angus SEDGWICK</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TA116511</t>
+          <t>TA21097</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -6578,12 +6578,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Tristan Marshall</t>
+          <t>Angus Westaway</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TA83352</t>
+          <t>TA123065</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6598,17 +6598,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Todd ALEXIS</t>
+          <t>Victor QUIROZ</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>TA44756</t>
+          <t>TA107727</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -6618,17 +6618,17 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Andrew Jeffrey</t>
+          <t>Mark WILBOURN</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>TA122297</t>
+          <t>TA19612</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -6638,12 +6638,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Andrew HOLT</t>
+          <t>Matthew CUMBERWORTH</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TA90758</t>
+          <t>TA130779</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6658,17 +6658,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Andrew Speechly</t>
+          <t>Matthew JOHNSTON</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>TA61918</t>
+          <t>TA112209</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Singleton Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -6678,17 +6678,17 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Angus BUNCLE</t>
+          <t>Mark LOWE</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TA114218</t>
+          <t>TA127466</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -6698,17 +6698,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Angus SEDGWICK</t>
+          <t>Matt DRAKE</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TA21097</t>
+          <t>TA3884</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -6718,12 +6718,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Andrew MACKENZIE</t>
+          <t>Mathew BROWN</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>TA7192</t>
+          <t>TA2234</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6738,17 +6738,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Andrew COOKE</t>
+          <t>Joshua Jones</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TA134569</t>
+          <t>TA135171</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -6758,17 +6758,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Andrew Carney</t>
+          <t>Juah Mare</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ta84026</t>
+          <t>TA137121</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Tomaree Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -6778,17 +6778,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Alex WAITE</t>
+          <t>Marcelo MOREIRA</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TA115249</t>
+          <t>TA124754</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -6798,17 +6798,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Aileen DAVIDSON</t>
+          <t>Josh KARP</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TA40663</t>
+          <t>TA105159</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -6818,17 +6818,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Alexander MACKENZIE</t>
+          <t>John WOODS</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TA90713</t>
+          <t>TA139370</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -6838,17 +6838,17 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Allen Pearson</t>
+          <t>John WHITTAKER</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TA8293</t>
+          <t>TA134271</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -6858,17 +6858,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Andrew COATES</t>
+          <t>John Le Page</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>TA122644</t>
+          <t>TA122283</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -6878,17 +6878,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Alex MOYNIHAN</t>
+          <t>James BLUMER</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TA133055</t>
+          <t>TA122091</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -6898,17 +6898,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Jason TURNER</t>
+          <t>Jack O'brien</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TA132570</t>
+          <t>TA135223</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -6918,17 +6918,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Jason Cooper</t>
+          <t>Himanshu BHUTANI</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TA122757</t>
+          <t>TA116631</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -6938,17 +6938,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Mark WILBOURN</t>
+          <t>Hendrik FRENTRUP</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TA19612</t>
+          <t>TA112335</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -6958,17 +6958,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Mark LOWE</t>
+          <t>Jean KEVANS</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TA127466</t>
+          <t>TA84540</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -6978,17 +6978,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Mark Hall</t>
+          <t>Jennifer DAVIES</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TA113680</t>
+          <t>TA110732</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -6998,17 +6998,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Marcelo MOREIRA</t>
+          <t>Jason TURNER</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TA124754</t>
+          <t>TA132570</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -7018,17 +7018,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Madeleine COMAN</t>
+          <t>James Mcanulty</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>135796</t>
+          <t>TA124037</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -7038,17 +7038,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Luke TARGETT</t>
+          <t>Emma KEAST</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TA23020</t>
+          <t>TA121654</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -7058,17 +7058,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Kylie Mcpherson</t>
+          <t>Jeremy BOLT</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>TA88592</t>
+          <t>TA54816</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -7078,17 +7078,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Leon MORICEAU</t>
+          <t>Gary MCMAHON</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>TA118236</t>
+          <t>TA95607</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -7098,17 +7098,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Leon Dawes</t>
+          <t>Gary MAHER</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TA107220</t>
+          <t>TA20555</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -7118,17 +7118,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Lauren BURKE</t>
+          <t>Gary ROSENBERG</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>134822</t>
+          <t>TA 133628</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -7138,17 +7138,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Juah Mare</t>
+          <t>Gavin TAIT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TA137121</t>
+          <t>TA126773</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D336" t="n">
@@ -7158,17 +7158,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Kealey Pugsley</t>
+          <t>Geoff MEERS</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TA54974</t>
+          <t>TA3482</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -7178,17 +7178,17 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Keiran RAMSAY</t>
+          <t>Jason Cooper</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TA4216</t>
+          <t>TA122757</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -7198,17 +7198,17 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Kyle Gallagher</t>
+          <t>Harrison Ainslie</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TA112863</t>
+          <t>TA117384</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -7218,17 +7218,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Victor QUIROZ</t>
+          <t>Michael EATON</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TA107727</t>
+          <t>TA53750</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -7238,17 +7238,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Wojt Janowski</t>
+          <t>Michael TAYLOR</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TA122313</t>
+          <t>ta106834</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -7258,12 +7258,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Wendy LONDAL</t>
+          <t>Michael NEWTON</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TA118578</t>
+          <t>131842</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7278,17 +7278,17 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Will MCCLOY</t>
+          <t>Nick BENNETT</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TA89228</t>
+          <t>TA119657</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -7298,17 +7298,17 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Josh KARP</t>
+          <t>Noel SPENCER</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TA105159</t>
+          <t>130064</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -7318,17 +7318,17 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Joshua Jones</t>
+          <t>Matthew O'brien</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TA135171</t>
+          <t>TA119886</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -7338,17 +7338,17 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Joseph MILES</t>
+          <t>Matt BUSH</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TA139837</t>
+          <t>TA124964</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -7358,17 +7358,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Yago CARREIRA</t>
+          <t>Megan King</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TA141320</t>
+          <t>TA69769</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -7378,17 +7378,17 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Angus Westaway</t>
+          <t>Melanie ANDERS</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TA123065</t>
+          <t>TA2104</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Forster Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -7398,17 +7398,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Annabelle HAYES</t>
+          <t>Michael CRAWFORD</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>TA141316</t>
+          <t>TA69039</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -7418,17 +7418,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>John WOODS</t>
+          <t>Michael DONNELLAN</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>TA139370</t>
+          <t>TA97329</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -7438,17 +7438,17 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>John Oregan</t>
+          <t>Mark Hall</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>TA125611</t>
+          <t>TA113680</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -7458,17 +7458,17 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>John Le Page</t>
+          <t>Jonathan Bruce MACKINTOSH</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TA122283</t>
+          <t>TA106115</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -7478,17 +7478,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Jodie WILLS</t>
+          <t>Joseph MILES</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TA127075</t>
+          <t>TA139837</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -7498,17 +7498,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Jennifer DAVIES</t>
+          <t>John Oregan</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TA110732</t>
+          <t>TA125611</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -7518,17 +7518,17 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>John WHITTAKER</t>
+          <t>David FELL</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TA134271</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -7538,12 +7538,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Hendrik FRENTRUP</t>
+          <t>David CRADDOCK</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TA112335</t>
+          <t>TA121651</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -7558,17 +7558,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Harrison Ainslie</t>
+          <t>David Bullock</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TA117384</t>
+          <t>TA122375</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Central Coast Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -7578,12 +7578,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Michael TAYLOR</t>
+          <t>David BOND</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ta106834</t>
+          <t>TA130751</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -7598,17 +7598,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Michael Tolhurst</t>
+          <t>Peter QUINN</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Ta6650</t>
+          <t>TA110729</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -7618,17 +7618,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>James Mcanulty</t>
+          <t>Danyel MURRAY</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TA124037</t>
+          <t>TA122799</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -7638,17 +7638,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Douglas THOMAS</t>
+          <t>Peter HORNAK</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>89445</t>
+          <t>TA129054</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D361" t="n">
@@ -7658,17 +7658,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>James BLUMER</t>
+          <t>Peter GOTH</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>TA122091</t>
+          <t>TA104304</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -7678,17 +7678,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Himanshu BHUTANI</t>
+          <t>Michael Tolhurst</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TA116631</t>
+          <t>Ta6650</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -7698,17 +7698,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Emma KEAST</t>
+          <t>Pete Hodgson</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TA121654</t>
+          <t>TA18072</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -7718,17 +7718,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Elli YAZBECK</t>
+          <t>Peter ROUBEKAS</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>TA138502</t>
+          <t>TA125551</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -7738,17 +7738,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Gary MCMAHON</t>
+          <t>Phil BETTERIDGE</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>TA95607</t>
+          <t>TA88587</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D366" t="n">
@@ -7758,17 +7758,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Gary MAHER</t>
+          <t>Douglas THOMAS</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>TA20555</t>
+          <t>89445</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -7778,17 +7778,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Gary ROSENBERG</t>
+          <t>Elli YAZBECK</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>TA 133628</t>
+          <t>TA138502</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -7798,17 +7798,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Gavin TAIT</t>
+          <t>David ROBINSON</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>TA126773</t>
+          <t>TA1821</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -7818,17 +7818,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Geoff MEERS</t>
+          <t>David POSKER-HILL</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>TA3482</t>
+          <t>TA131023</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -7838,17 +7838,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Jean KEVANS</t>
+          <t>Quentin GRIGNET</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>TA84540</t>
+          <t>TA123346</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -7858,17 +7858,17 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Matt DRAKE</t>
+          <t>Pj Lyndon-James</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>TA3884</t>
+          <t>TA127413</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -7878,17 +7878,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Matt BUSH</t>
+          <t>Pierre-Eliott ROUSSEL-CORBINEAU</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>TA124964</t>
+          <t>TA122126</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -7898,17 +7898,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Mathew BROWN</t>
+          <t>Rhys NEWELL</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>TA2234</t>
+          <t>TA8928</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -7918,12 +7918,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Matthew CUMBERWORTH</t>
+          <t>Richard MORTON</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>TA130779</t>
+          <t>TA120471</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -7938,17 +7938,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Megan King</t>
+          <t>Richard DREDGE</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>TA69769</t>
+          <t>TA117624</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D376" t="n">
@@ -7958,17 +7958,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Melanie ANDERS</t>
+          <t>Rohan BROWN</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>TA2104</t>
+          <t>TA138096</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -7978,17 +7978,17 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Matthew JOHNSTON</t>
+          <t>Roddy MACLEAN</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>TA112209</t>
+          <t>TA87419</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -7998,17 +7998,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Matthew O'brien</t>
+          <t>Ruben GARCIA MOHEDANO</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>TA119886</t>
+          <t>TA105924</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -8018,17 +8018,17 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Michael DONNELLAN</t>
+          <t>Ryan FIFIELD</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>TA97329</t>
+          <t>Ta723</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -8038,17 +8038,17 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Michael CRAWFORD</t>
+          <t>Sam Peacock</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>TA69039</t>
+          <t>TA126395</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -8058,17 +8058,17 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Michael EATON</t>
+          <t>Cheryl Day</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>TA53750</t>
+          <t>TA134322</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -8078,17 +8078,17 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Michael NEWTON</t>
+          <t>Philip SLOSS</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>131842</t>
+          <t>Ta130053</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -8098,12 +8098,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Jonathan Bruce MACKINTOSH</t>
+          <t>Debbie DAVIDSON</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>TA106115</t>
+          <t>TA5512</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -8118,17 +8118,17 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Joel Hodge</t>
+          <t>Debora Pamela CARDENAS OYARZUN</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>TA114222</t>
+          <t>TA137710</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -8138,17 +8138,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>John DJUKANOVIC</t>
+          <t>David OGIER</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>TA102229</t>
+          <t>TA36215</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D386" t="n">
@@ -8158,17 +8158,17 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Jeremy BOLT</t>
+          <t>Chris STEVENS</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TA54816</t>
+          <t>TA115005</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -8178,17 +8178,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>David Bullock</t>
+          <t>Chris Jeffery</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TA122375</t>
+          <t>TA89627</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Maitland Triathlon Club</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -8198,17 +8198,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>David BOND</t>
+          <t>Chris Jardine</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TA130751</t>
+          <t>TA79980</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Singleton Triathlon Club</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -8218,17 +8218,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Danyel MURRAY</t>
+          <t>Cheyne Jobson</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TA122799</t>
+          <t>TA137530</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -8238,17 +8238,17 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Daniel ACOSTA</t>
+          <t>Con BELLOS</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>TA113716</t>
+          <t>TA126371</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D391" t="n">
@@ -8258,12 +8258,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Pj Lyndon-James</t>
+          <t>Chris Smith</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>TA127413</t>
+          <t>TA107201</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -8278,12 +8278,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Quentin GRIGNET</t>
+          <t>Christine SIPIDIAS</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>TA123346</t>
+          <t>Ta130054</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -8298,17 +8298,17 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Pierre-Eliott ROUSSEL-CORBINEAU</t>
+          <t>Colm O'NEILL</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TA122126</t>
+          <t>TA137351</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -8318,17 +8318,17 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Philip SLOSS</t>
+          <t>Daniel ACOSTA</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Ta130053</t>
+          <t>TA113716</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -8338,17 +8338,17 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Peter HORNAK</t>
+          <t>Damian HENRY</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>TA129054</t>
+          <t>TA125485</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D396" t="n">
@@ -8358,17 +8358,17 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Phil BETTERIDGE</t>
+          <t>Con PAPADOPOULOS</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>TA88587</t>
+          <t>TA117760</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -8378,17 +8378,17 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Peter ROUBEKAS</t>
+          <t>Ben CALDER</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>TA125551</t>
+          <t>TA9577</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -8398,17 +8398,17 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Peter QUINN</t>
+          <t>Ben RYAN</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>TA110729</t>
+          <t>TA131200</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -8418,17 +8418,17 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Pete Hodgson</t>
+          <t>Ben Yates</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TA18072</t>
+          <t>ta126345</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -8438,17 +8438,17 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Peter GOTH</t>
+          <t>Brad HOMER</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TA104304</t>
+          <t>TA101133</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D401" t="n">
@@ -8458,17 +8458,17 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Noel SPENCER</t>
+          <t>Brendan MAREE</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>130064</t>
+          <t>110628</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -8478,17 +8478,17 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Nick BENNETT</t>
+          <t>Brendan WONG</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>TA119657</t>
+          <t>109484</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -8498,17 +8498,17 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Jack O'brien</t>
+          <t>Brian BARRETO</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TA135223</t>
+          <t>TA135495</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Newcastle Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D404" t="n">
@@ -8518,17 +8518,17 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Rohan BROWN</t>
+          <t>Charles NUTTALL-SMITH</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TA138096</t>
+          <t>TA134338</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -8538,17 +8538,17 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Richard MORTON</t>
+          <t>Charlie Bray</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TA120471</t>
+          <t>TA128365</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Newcastle Triathlon Club</t>
         </is>
       </c>
       <c r="D406" t="n">
@@ -8558,17 +8558,17 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Roddy MACLEAN</t>
+          <t>Seamus FINGLETON</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TA87419</t>
+          <t>TA 73918</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -8578,17 +8578,17 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Ryan FIFIELD</t>
+          <t>Sean ANDREWS</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ta723</t>
+          <t>TA64608</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -8598,17 +8598,17 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Sam Peacock</t>
+          <t>Sean CURTIS</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TA126395</t>
+          <t>TA135353</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Maitland Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -8618,17 +8618,17 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Charles NUTTALL-SMITH</t>
+          <t>Sha ZHU</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TA134338</t>
+          <t>TA121522</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -8638,17 +8638,17 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Richard DREDGE</t>
+          <t>Shane SMITH</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>TA117624</t>
+          <t>TA83869</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D411" t="n">
@@ -8658,17 +8658,17 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Debbie DAVIDSON</t>
+          <t>Shaun Doyle</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TA5512</t>
+          <t>TA117662</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Central Coast Triathlon Club</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -8678,17 +8678,17 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>David ROBINSON</t>
+          <t>Sherman CHENG</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TA1821</t>
+          <t>TA64727</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -8698,17 +8698,17 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Rhys NEWELL</t>
+          <t>Simon Gay</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TA8928</t>
+          <t>TA7109</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Forster Triathlon Club</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -8718,17 +8718,17 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Debora Pamela CARDENAS OYARZUN</t>
+          <t>Stephen PAPWORTH</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TA137710</t>
+          <t>TA92757</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -8738,17 +8738,17 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>David OGIER</t>
+          <t>Steven CROSBY</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TA36215</t>
+          <t>TA11138</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D416" t="n">
@@ -8758,17 +8758,17 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>David POSKER-HILL</t>
+          <t>Stuart RICHARDS</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TA131023</t>
+          <t>TA131562</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -8778,680 +8778,20 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>David FELL</t>
+          <t>Stuart THOMAS</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>3794</t>
+          <t>TA103670</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>David CRADDOCK</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>TA121651</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>Cronulla Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D419" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>Christine SIPIDIAS</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>Ta130054</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>Balance Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D420" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>Chris Smith</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>TA107201</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>Newcastle Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D421" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>Chris STEVENS</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>TA115005</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>Cronulla Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D422" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>Chris Jeffery</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>TA89627</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>Maitland Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D423" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>Cheyne Jobson</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>TA137530</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>Central Coast Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D424" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>Chris Jardine</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>TA79980</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>Singleton Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D425" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>Cheryl Day</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>TA134322</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>Central Coast Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D426" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>Charlie Bray</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>TA128365</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>Newcastle Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D427" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>Ruben GARCIA MOHEDANO</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>TA105924</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>Balance Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D428" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>Ben CALDER</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>TA9577</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>Balance Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D429" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>Ben Yates</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>ta126345</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>Newcastle Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D430" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>Ben RYAN</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>TA131200</t>
-        </is>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>Warringah Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D431" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>Damian HENRY</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>TA125485</t>
-        </is>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>Brighton Baths Athletic Club</t>
-        </is>
-      </c>
-      <c r="D432" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>Con PAPADOPOULOS</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>TA117760</t>
-        </is>
-      </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>Brighton Baths Athletic Club</t>
-        </is>
-      </c>
-      <c r="D433" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>Con BELLOS</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>TA126371</t>
-        </is>
-      </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>Brighton Baths Athletic Club</t>
-        </is>
-      </c>
-      <c r="D434" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>Colm O'NEILL</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>TA137351</t>
-        </is>
-      </c>
-      <c r="C435" t="inlineStr">
-        <is>
-          <t>Balance Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D435" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>Seamus FINGLETON</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>TA 73918</t>
-        </is>
-      </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>Balmoral Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D436" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>Brian BARRETO</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>TA135495</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>Concord Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D437" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>Brendan WONG</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>109484</t>
-        </is>
-      </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>Balmoral Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D438" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>Brendan MAREE</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>110628</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>Brighton Baths Athletic Club</t>
-        </is>
-      </c>
-      <c r="D439" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>Brad HOMER</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>TA101133</t>
-        </is>
-      </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>Balance Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D440" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>Sean ANDREWS</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>TA64608</t>
-        </is>
-      </c>
-      <c r="C441" t="inlineStr">
-        <is>
-          <t>Warringah Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D441" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>Sha ZHU</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>TA121522</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>Concord Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D442" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>Sean CURTIS</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>TA135353</t>
-        </is>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>Warringah Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D443" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>Simon Gay</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>TA7109</t>
-        </is>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>Forster Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D444" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>Sherman CHENG</t>
-        </is>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>TA64727</t>
-        </is>
-      </c>
-      <c r="C445" t="inlineStr">
-        <is>
-          <t>Concord Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D445" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>Shaun Doyle</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>TA117662</t>
-        </is>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>Central Coast Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D446" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>Shane SMITH</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>TA83869</t>
-        </is>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>Macarthur Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D447" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>Steven CROSBY</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>TA11138</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>Warringah Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D448" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>Stephen PAPWORTH</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>TA92757</t>
-        </is>
-      </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>Cronulla Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D449" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>Stuart THOMAS</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>TA103670</t>
-        </is>
-      </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>Warringah Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D450" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>Stuart RICHARDS</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>TA131562</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>Cronulla Triathlon Club</t>
-        </is>
-      </c>
-      <c r="D451" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/season/current_season/Season_MVP.xlsx
+++ b/data/season/current_season/Season_MVP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dylan CLOUGH</t>
+          <t>Andrew GIBIETIS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TA96125</t>
+          <t>TA70149</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Christopher COOPER</t>
+          <t>Hannah GUMBLEY</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA11806</t>
+          <t>TA136961</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Andrew GIBIETIS</t>
+          <t>Dylan CLOUGH</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TA70149</t>
+          <t>TA96125</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -538,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mike HISER</t>
+          <t>David MCEWAN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TA8704</t>
+          <t>TA4244</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Owain MATTHEWS</t>
+          <t>Graham BRUCE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TA2035</t>
+          <t>TA1276</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rob HOWITT</t>
+          <t>Christopher COOPER</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TA12752</t>
+          <t>TA11806</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -598,17 +598,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Harry LINDBOM</t>
+          <t>Mike HISER</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TA59003</t>
+          <t>TA8704</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -618,17 +618,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sharyn NICHOLS</t>
+          <t>Owain MATTHEWS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TA88484</t>
+          <t>TA2035</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -678,17 +678,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sophie HARDWICK</t>
+          <t>Kelly COLLINS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TA133416</t>
+          <t>TA115976</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -698,12 +698,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kelly COLLINS</t>
+          <t>Leon SHARP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TA115976</t>
+          <t>TA103203</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sarah HOWITT</t>
+          <t>John HUGHES</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TA231</t>
+          <t>TA10981</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -738,92 +738,92 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Matthew BONNY</t>
+          <t>Harry LINDBOM</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TA103649</t>
+          <t>TA59003</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tony GOLDEN</t>
+          <t>Travis SHIELDS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TA3668</t>
+          <t>TA8255</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Emily SWALES</t>
+          <t>Sharyn NICHOLS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TA105609</t>
+          <t>TA88484</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Emily IRVINE</t>
+          <t>Sophie HARDWICK</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TA139196</t>
+          <t>TA133416</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Daniel HOWITT</t>
+          <t>Rob HOWITT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TA81363</t>
+          <t>TA12752</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -832,43 +832,43 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Daniel X JAMES</t>
+          <t>Sarah HOWITT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TA3369</t>
+          <t>TA231</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hayden BROWN</t>
+          <t>Gemma FIGTREE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TA126378</t>
+          <t>TA128212</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -878,17 +878,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Michelle CHEN</t>
+          <t>Jessica MONAGLE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TA122033</t>
+          <t>TA73706</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rohan BROWN</t>
+          <t>Helen HUTCHINSON</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TA138096</t>
+          <t>TA107747</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Marcelo ROSSI</t>
+          <t>Daniel HOWITT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TA66205</t>
+          <t>TA81363</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jessica MONAGLE</t>
+          <t>Rohan BROWN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TA73706</t>
+          <t>TA138096</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -958,17 +958,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Anthony SPURRETT</t>
+          <t>Tony GOLDEN</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TA126064</t>
+          <t>TA3668</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -978,732 +978,732 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Guy DAVIES</t>
+          <t>Thales DA SILVA SOUZA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TA65233</t>
+          <t>TA109921</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nicholas KATSILIS</t>
+          <t>Nick TAYLOR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TA104203</t>
+          <t>TA18889</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jean KEVANS</t>
+          <t>Matthew BONNY</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TA84540</t>
+          <t>TA103649</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chris CLELAND</t>
+          <t>Marcelo ROSSI</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TA79987</t>
+          <t>TA66205</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jarrod CRUMP</t>
+          <t>Michelle CHEN</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TA14687</t>
+          <t>TA122033</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aileen DAVIDSON</t>
+          <t>Hayden BROWN</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TA40663</t>
+          <t>TA126378</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sharon VAHANIAN</t>
+          <t>Daniel X JAMES</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TA132579</t>
+          <t>TA3369</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Max FREEMAN</t>
+          <t>Darren POWELL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TA110515</t>
+          <t>TA42929</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Greg SMITH</t>
+          <t>Anthony SPURRETT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TA8136</t>
+          <t>TA126064</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>George GRIGG</t>
+          <t>Esteban GIMENEZ ZAPIOLA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TA139536</t>
+          <t>TA105731</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>James NALDRETT</t>
+          <t>Grace HAYWARD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TA136988</t>
+          <t>TA41979</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>James KNIGHT</t>
+          <t>Emily SWALES</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TA4163</t>
+          <t>TA105609</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ben TAYLOR</t>
+          <t>Emily IRVINE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TA67609</t>
+          <t>TA139196</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Carol IRVING</t>
+          <t>Phil LYNCH</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TA104227</t>
+          <t>TA5483</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Michael DONNELLAN</t>
+          <t>Chris CLELAND</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TA97329</t>
+          <t>TA79987</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Kelly LINTON</t>
+          <t>Guy DAVIES</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TA134082</t>
+          <t>TA65233</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Luke HANNIGAN</t>
+          <t>Anna WILCOX</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TA123638</t>
+          <t>TA113972</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Rochelle MARTIN</t>
+          <t>Catijn SCHIERBEEK</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TA59867</t>
+          <t>TA136989</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mark GARCIA</t>
+          <t>Nicholas KATSILIS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TA1927</t>
+          <t>TA104203</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jacobus PIENAAR</t>
+          <t>Paul LINTON</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TA89525</t>
+          <t>TA90783</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Claire ROBERTSON</t>
+          <t>Julie HOWLE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TA0806</t>
+          <t>TA7035</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ben RYAN</t>
+          <t>Kiera BATTEN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TA131200</t>
+          <t>TA106413</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gavin TAIT</t>
+          <t>Jarrod CRUMP</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TA126773</t>
+          <t>TA14687</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Steve NICHOLS</t>
+          <t>Jean KEVANS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TA103520</t>
+          <t>TA84540</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Craig PRINGLE</t>
+          <t>Jonathan DELEU</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TA130229</t>
+          <t>TA112183</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Himanshu BHUTANI</t>
+          <t>James KNIGHT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TA116631</t>
+          <t>TA4163</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Dan THOMAS</t>
+          <t>Fasong KIM</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TA108518</t>
+          <t>TA115893</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Adam WICKS</t>
+          <t>George GRIGG</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TA72316</t>
+          <t>TA139536</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Ian TATTERSALL</t>
+          <t>Greg SMITH</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TA47934</t>
+          <t>TA8136</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Stephanie AYRE</t>
+          <t>Aileen DAVIDSON</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TA130898</t>
+          <t>TA40663</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ahmad AGEEZ</t>
+          <t>Jen LAMY MEDINA</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TA114760</t>
+          <t>TA117530</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sydney South West Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Grant MURRELL</t>
+          <t>James NALDRETT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TA135374</t>
+          <t>TA136988</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ashok ANAND KUMAR</t>
+          <t>Sharon VAHANIAN</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TA143233</t>
+          <t>TA132579</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>David CRADDOCK</t>
+          <t>Sabine D'HAESELEER</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TA121651</t>
+          <t>TA131107</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Jason TURNER</t>
+          <t>Max FREEMAN</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TA132570</t>
+          <t>TA110515</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Michael WALLIS</t>
+          <t>Ben TAYLOR</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TA116051</t>
+          <t>TA67609</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Larissa LAWRENCE</t>
+          <t>Carol IRVING</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TA143378</t>
+          <t>TA104227</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1712,18 +1712,18 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Leigh REYNOLDS</t>
+          <t>John PUZ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TA93907</t>
+          <t>TA94809</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1732,86 +1732,2866 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Jordan AITKEN</t>
+          <t>Mark PACEY</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TA81593</t>
+          <t>TA11515</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Engadine Triathlon Club Inc</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>John VAN OMMEN</t>
+          <t>Mark DEMPSEY</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TA68424</t>
+          <t>TA126354</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sally KREBS</t>
+          <t>Michael DONNELLAN</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TA140856</t>
+          <t>TA97329</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>Kelly LINTON</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TA134082</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Luke HANNIGAN</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TA123638</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Rochelle MARTIN</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TA59867</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jacobus PIENAAR</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TA89525</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nathan DIXON</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TA133364</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Mark GARCIA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TA1927</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jodie STOCKS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TA88322</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Northern Suburbs Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Claire ROBERTSON</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TA0806</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Harrison WOOD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TA111779</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ben RYAN</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TA131200</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Emily KEMPSON</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TA5798</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Gareth HOWITT</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TA126545</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Tony THORNTON</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TA109579</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Northern Suburbs Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Steve NICHOLS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TA103520</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Gavin TAIT</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TA126773</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Himanshu BHUTANI</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TA116631</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Brian BRADY</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TA7104</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Craig PRINGLE</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TA130229</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jodie HILL</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TA6850</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Sam DOUGLAS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TA26539</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Darren BRADING</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TA9215</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>David DIBDIN</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TA136440</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Brighton Baths Athletic Club</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Dan THOMAS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TA108518</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Eden STRYDOM</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TA130976</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Julie JACKSON</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TA109700</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Joseph SQUADRITO</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TA112593</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Wiebke WESSELS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TA141816</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Eric POULIN</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TA120285</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Kristina KRAFT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TA142443</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Mariana FOGANHOLE</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TA125990</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Stephanie AYRE</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TA130898</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ian TATTERSALL</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TA47934</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sam GRASSO</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TA136013</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Adam WICKS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TA72316</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Eleanor THACKREY</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TA141258</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Elouise BACON</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TA137584</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Harriet MACDONALD</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TA138934</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Greg HILL</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TA6941</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Grant MURRELL</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TA135374</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Georgia DEGOTARDI</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TA107652</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Northern Suburbs Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Fanny CHARLES</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TA137816</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Darren VORSTER</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TA79682</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Ben JAMES</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TA81416</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ben LOWE</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TA138064</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Andrew HOLT</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>TA90758</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Amy MCDONALD</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TA135868</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Andrew MACKIE</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TA87308</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ashok ANAND KUMAR</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TA143233</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Barton CHAMPNESS</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TA112255</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Ben BOYD</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TA4323</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Ahmad AGEEZ</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TA114760</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>South West Sydney Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Eugene TAN</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TA118493</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Dennis CONTEMPLACION</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TA81210</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>FILOZ TRIATHLON CLUB</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>David BENNEVAULT</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>TA120094</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>David BROMFIELD</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>TA101020</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>David CRADDOCK</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>TA121651</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Danny CULLEY</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>TA132959</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Daniel MURRAY</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TA134419</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Manly Vipers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Callum GILBERT</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TA139899</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Brad PICKARD</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TA126394</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Chris WARING</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>TA9395</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Chris STEVENS</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>TA115005</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Caroline HUYNH</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>TA130197</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Catherine WALLER</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>TA121457</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Brent GAPES</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>TA116307</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Brett COLEMAN</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>TA141156</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Macarthur Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Bronte CALLAGHAN</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>TA125583</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Craig ROBERTS</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>TA129928</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Daniel BARRON</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TA36243</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Dale SMITH</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>TA107761</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Macarthur Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Christopher DYSZEL</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TA136912</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Daniel MOORE</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>TA79003</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Moore Performance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Darcy ANDREWS</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>TA125187</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>John VAN OMMEN</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>TA68424</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Jozef MCPHERSON</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TA118080</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Joseph HILL</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>TA114358</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Matthew YAZBEK</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>TA142539</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Matthew OSTLER</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>TA70333</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Mateus WINER</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>TA139096</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Manon GUNDERSON-BRIGGS</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>TA130173</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Lotte SIBBALD</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TA140895</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Lorenzo RAGGHIANTI</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TA125553</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Liam THURSTON</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>TA124874</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Kaine WHITELAW</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>TA114024</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Macarthur Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Kane DRAPER</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>TA124731</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Katie MAUDSLEY</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>TA115549</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Julian NORTH</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TA22913</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Kevin SURJADI</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>TA128541</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Larissa LAWRENCE</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>TA143378</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Laurent SAFFRE</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>TA114234</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Leigh LAVERY</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>TA109439</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Leigh REYNOLDS</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>TA93907</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Jay KENNEDY</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>TA80634</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Engadine Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Jess CARSWELL</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>TA140974</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Jasmine ZAMAN</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TA135246</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Jason TURNER</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>TA132570</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Pulse Performance</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>James QUINN-KUMAR</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>TA140077</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Jake HUMMERSTON</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>TA7546</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Jacob LIPSON</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>TA125643</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jasmine PATANKAR</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>TA133347</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Jonathon TAN</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>TA69350</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Jordan AITKEN</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TA81593</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Engadine Triathlon Club Inc</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Jesper OLSEN</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>TA133563</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Niall MURPHY</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>TA33309</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Nicholas MCWHIRTER</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>TA141897</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Michael KALUZYNSKI</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>TA121633</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Michael WALLIS</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>TA116051</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Max HOONHOUT</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>TA132222</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Ryan VAN</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>TA133625</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Ryan KEEVERS</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>TA130937</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Ruben GARCIA MOHEDANO</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>TA105924</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Rodrigo MATAMALA</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>TA142945</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Robert BRADLEY</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>TA136663</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Rachel KENNEDY</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>TA80635</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Engadine Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Richard ALLEN</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>TA3394</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Riley DORMAN</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>TA142397</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Nicole JANKOWSKI</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>TA126537</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Pete FERGUSON</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>TA140185</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Max TAYLOR</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>TA135862</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Michael CRAWFORD</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>TA69039</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Neil CULKIN</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>TA3463</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Manly Vipers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Nathan STONE</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>TA135161</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Sam MILLEN</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>TA122737</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>TriMob</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Sanjay RADHAKRISHNAN</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>TA140439</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Steven WONG</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>TA132300</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Stacey BUCKTON</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>TA125630</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Shahan BHUIYAN</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>TA135339</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Sean BURRELL-SINCLAIR</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>TA139051</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Sally KREBS</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>TA140856</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Timothy KING</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>TA138497</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sybrand VAN DYK</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>TA81553</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Thomas HUGHES</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>TA141474</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
           <t>Tony PERNA</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>TA83949</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>Balmoral Triathlon Club</t>
         </is>
       </c>
-      <c r="D69" t="n">
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Tristan MACMANUS</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>TA100852</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Vansh PATEL</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>TA140335</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Uma BARRETT</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>TA132266</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Victor HUYNH</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>TA130642</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Victoria JAGUSCH</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>TA140602</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Warren EASTON</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>TA13125</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>William RUSSELL</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>TA122217</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/season/current_season/Season_MVP.xlsx
+++ b/data/season/current_season/Season_MVP.xlsx
@@ -768,7 +768,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>South West Sydney Triathlon Club</t>
+          <t>Sydney South West Triathlon Club</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D179" t="n">

--- a/data/season/current_season/Season_MVP.xlsx
+++ b/data/season/current_season/Season_MVP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hannah GUMBLEY</t>
+          <t>Christopher COOPER</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA136961</t>
+          <t>TA11806</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dylan CLOUGH</t>
+          <t>Cameron GRIFFIN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TA96125</t>
+          <t>TA138296</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Kiama Triathlon Club</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Graham BRUCE</t>
+          <t>Dylan CLOUGH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TA1276</t>
+          <t>TA96125</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Christopher COOPER</t>
+          <t>David RAYMOND</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TA11806</t>
+          <t>TA96418</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Illawarra Triathlon Club</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -598,17 +598,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mike HISER</t>
+          <t>Graham BRUCE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TA8704</t>
+          <t>TA1276</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -618,17 +618,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Owain MATTHEWS</t>
+          <t>James DAVY</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TA2035</t>
+          <t>TA19120</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Illawarra Triathlon Club</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -638,17 +638,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Matthew FARMER</t>
+          <t>Harry LINDBOM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TA8180</t>
+          <t>TA59003</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Maddie MORTON</t>
+          <t>Hannah GUMBLEY</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TA90542</t>
+          <t>TA136961</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -678,17 +678,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Kelly COLLINS</t>
+          <t>Trudi BARNES</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TA115976</t>
+          <t>TA136478</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Illawarra Triathlon Club</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -698,17 +698,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Leon SHARP</t>
+          <t>Sophie HARDWICK</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TA103203</t>
+          <t>TA133416</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -718,17 +718,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>John HUGHES</t>
+          <t>Sharyn NICHOLS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TA10981</t>
+          <t>TA88484</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Harry LINDBOM</t>
+          <t>Sarah HOWITT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TA59003</t>
+          <t>TA231</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -758,17 +758,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Travis SHIELDS</t>
+          <t>Leon SHARP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TA8255</t>
+          <t>TA103203</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -778,17 +778,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sharyn NICHOLS</t>
+          <t>Maddie MORTON</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TA88484</t>
+          <t>TA90542</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sophie HARDWICK</t>
+          <t>Matthew FARMER</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TA133416</t>
+          <t>TA8180</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rob HOWITT</t>
+          <t>Mark WYNEN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TA12752</t>
+          <t>TA123370</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Kiama Triathlon Club</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -838,17 +838,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sarah HOWITT</t>
+          <t>Keelan GREEN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TA231</t>
+          <t>TA68568</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Kiama Triathlon Club</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -858,197 +858,197 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gemma FIGTREE</t>
+          <t>Kelly COLLINS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TA128212</t>
+          <t>TA115976</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jessica MONAGLE</t>
+          <t>Will BLESSING</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TA73706</t>
+          <t>TA99914</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Jervis Bay Triathlon Club</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Helen HUTCHINSON</t>
+          <t>Travis SHIELDS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TA107747</t>
+          <t>TA8255</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Daniel HOWITT</t>
+          <t>Mike HISER</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TA81363</t>
+          <t>TA8704</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rohan BROWN</t>
+          <t>Owain MATTHEWS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TA138096</t>
+          <t>TA2035</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tony GOLDEN</t>
+          <t>Pixie HANSON</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TA3668</t>
+          <t>TA126515</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Illawarra Triathlon Club</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Thales DA SILVA SOUZA</t>
+          <t>Rob HOWITT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TA109921</t>
+          <t>TA12752</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nick TAYLOR</t>
+          <t>John HUGHES</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TA18889</t>
+          <t>TA10981</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Matthew BONNY</t>
+          <t>Jeremy KENNY</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TA103649</t>
+          <t>TA115133</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Illawarra Triathlon Club</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Marcelo ROSSI</t>
+          <t>Emily SWALES</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TA66205</t>
+          <t>TA105609</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Michelle CHEN</t>
+          <t>Esteban GIMENEZ ZAPIOLA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TA122033</t>
+          <t>TA105731</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1078,17 +1078,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hayden BROWN</t>
+          <t>Daniel HOWITT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TA126378</t>
+          <t>TA81363</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Daniel X JAMES</t>
+          <t>Darren POWELL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TA3369</t>
+          <t>TA42929</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1118,17 +1118,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Darren POWELL</t>
+          <t>Daniel X JAMES</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TA42929</t>
+          <t>TA3369</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1138,17 +1138,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Anthony SPURRETT</t>
+          <t>Emily IRVINE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TA126064</t>
+          <t>TA139196</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Esteban GIMENEZ ZAPIOLA</t>
+          <t>Grace HAYWARD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TA105731</t>
+          <t>TA41979</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1178,17 +1178,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Grace HAYWARD</t>
+          <t>James ALEXANDER</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TA41979</t>
+          <t>TA40243</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Illawarra Triathlon Club</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1198,17 +1198,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Emily SWALES</t>
+          <t>Gemma FIGTREE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TA105609</t>
+          <t>TA128212</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Emily IRVINE</t>
+          <t>Eric VICKERY</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TA139196</t>
+          <t>TA11700</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Illawarra Triathlon Club</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1238,312 +1238,312 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Phil LYNCH</t>
+          <t>Helen HUTCHINSON</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TA5483</t>
+          <t>TA107747</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chris CLELAND</t>
+          <t>Anthony SPURRETT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TA79987</t>
+          <t>TA126064</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Guy DAVIES</t>
+          <t>Belinda JACOBS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TA65233</t>
+          <t>TA138245</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Illawarra Triathlon Club</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Anna WILCOX</t>
+          <t>Tony GOLDEN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TA113972</t>
+          <t>TA3668</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Catijn SCHIERBEEK</t>
+          <t>Rohan BROWN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TA136989</t>
+          <t>TA138096</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nicholas KATSILIS</t>
+          <t>Jessica MONAGLE</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TA104203</t>
+          <t>TA73706</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Paul LINTON</t>
+          <t>Marcelo ROSSI</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TA90783</t>
+          <t>TA66205</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Julie HOWLE</t>
+          <t>Matthew BONNY</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TA7035</t>
+          <t>TA103649</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Kiera BATTEN</t>
+          <t>Nick TAYLOR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TA106413</t>
+          <t>TA18889</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jarrod CRUMP</t>
+          <t>Michelle CHEN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TA14687</t>
+          <t>TA122033</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jean KEVANS</t>
+          <t>Thales DA SILVA SOUZA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TA84540</t>
+          <t>TA109921</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Jonathan DELEU</t>
+          <t>Franc ZILLI</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TA112183</t>
+          <t>TA114625</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Kiama Triathlon Club</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>James KNIGHT</t>
+          <t>Hayden BROWN</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TA4163</t>
+          <t>TA126378</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fasong KIM</t>
+          <t>Kiera BATTEN</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TA115893</t>
+          <t>TA106413</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>George GRIGG</t>
+          <t>Michelle AITKEN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TA139536</t>
+          <t>TA129701</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Eurocoast Triathlon club</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Greg SMITH</t>
+          <t>Julie HOWLE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TA8136</t>
+          <t>TA7035</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1552,1118 +1552,1118 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aileen DAVIDSON</t>
+          <t>Jarrod CRUMP</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TA40663</t>
+          <t>TA14687</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jen LAMY MEDINA</t>
+          <t>Jean KEVANS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TA117530</t>
+          <t>TA84540</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>James NALDRETT</t>
+          <t>Jonathan DELEU</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TA136988</t>
+          <t>TA112183</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sharon VAHANIAN</t>
+          <t>Col STEELE</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TA132579</t>
+          <t>TA78100</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Illawarra Triathlon Club</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sabine D'HAESELEER</t>
+          <t>Clare SMITH</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TA131107</t>
+          <t>TA121311</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Eurocoast Triathlon club</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Max FREEMAN</t>
+          <t>Chris CLELAND</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TA110515</t>
+          <t>TA79987</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ben TAYLOR</t>
+          <t>Anna WILCOX</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TA67609</t>
+          <t>TA113972</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Carol IRVING</t>
+          <t>Catijn SCHIERBEEK</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TA104227</t>
+          <t>TA136989</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>John PUZ</t>
+          <t>Guy DAVIES</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TA94809</t>
+          <t>TA65233</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Mark PACEY</t>
+          <t>Phil LYNCH</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TA11515</t>
+          <t>TA5483</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Mark DEMPSEY</t>
+          <t>Nicholas KATSILIS</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TA126354</t>
+          <t>TA104203</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Michael DONNELLAN</t>
+          <t>Paul LINTON</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TA97329</t>
+          <t>TA90783</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Kelly LINTON</t>
+          <t>Jen LAMY MEDINA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TA134082</t>
+          <t>TA117530</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Luke HANNIGAN</t>
+          <t>Max FREEMAN</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TA123638</t>
+          <t>TA110515</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Rochelle MARTIN</t>
+          <t>Sabine D'HAESELEER</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TA59867</t>
+          <t>TA131107</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Jacobus PIENAAR</t>
+          <t>Sharon VAHANIAN</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TA89525</t>
+          <t>TA132579</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Nathan DIXON</t>
+          <t>James KNIGHT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TA133364</t>
+          <t>TA4163</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mark GARCIA</t>
+          <t>Greg SMITH</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TA1927</t>
+          <t>TA8136</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Jodie STOCKS</t>
+          <t>George GRIGG</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TA88322</t>
+          <t>TA139536</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Northern Suburbs Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Claire ROBERTSON</t>
+          <t>James NALDRETT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TA0806</t>
+          <t>TA136988</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Harrison WOOD</t>
+          <t>Aileen DAVIDSON</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TA111779</t>
+          <t>TA40663</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ben RYAN</t>
+          <t>Cameron DRIBBUS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TA131200</t>
+          <t>TA125268</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Kiama Triathlon Club</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Emily KEMPSON</t>
+          <t>Dane SABLOWSKI</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TA5798</t>
+          <t>TA11134</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Kiama Triathlon Club</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Gareth HOWITT</t>
+          <t>Fasong KIM</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TA126545</t>
+          <t>TA115893</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Tony THORNTON</t>
+          <t>John PUZ</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TA109579</t>
+          <t>TA94809</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Northern Suburbs Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Steve NICHOLS</t>
+          <t>Carol IRVING</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TA103520</t>
+          <t>TA104227</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gavin TAIT</t>
+          <t>Ben TAYLOR</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TA126773</t>
+          <t>TA67609</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Himanshu BHUTANI</t>
+          <t>Ceinwyn WHITTAKER</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TA116631</t>
+          <t>TA14752</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Kiama Triathlon Club</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Brian BRADY</t>
+          <t>Sile CROWE</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TA7104</t>
+          <t>TA66204</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Jervis Bay Triathlon Club</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Craig PRINGLE</t>
+          <t>Rochelle MARTIN</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TA130229</t>
+          <t>TA59867</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Jodie HILL</t>
+          <t>Michael DONNELLAN</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TA6850</t>
+          <t>TA97329</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sam DOUGLAS</t>
+          <t>Kelly LINTON</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TA26539</t>
+          <t>TA134082</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Darren BRADING</t>
+          <t>Mark DEMPSEY</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TA9215</t>
+          <t>TA126354</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>David DIBDIN</t>
+          <t>Luke HANNIGAN</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TA136440</t>
+          <t>TA123638</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Dan THOMAS</t>
+          <t>Mark PACEY</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TA108518</t>
+          <t>TA11515</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Eden STRYDOM</t>
+          <t>Nathan DIXON</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TA130976</t>
+          <t>TA133364</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Julie JACKSON</t>
+          <t>Jacobus PIENAAR</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TA109700</t>
+          <t>TA89525</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Joseph SQUADRITO</t>
+          <t>Harrison WOOD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TA112593</t>
+          <t>TA111779</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wiebke WESSELS</t>
+          <t>Claire ROBERTSON</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TA141816</t>
+          <t>TA0806</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Eric POULIN</t>
+          <t>Eliza DALLY</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TA120285</t>
+          <t>TA136173</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Eurocoast Triathlon club</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Kristina KRAFT</t>
+          <t>Jodie STOCKS</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TA142443</t>
+          <t>TA88322</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Northern Suburbs Triathlon Club</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mariana FOGANHOLE</t>
+          <t>Mark GARCIA</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TA125990</t>
+          <t>TA1927</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Stephanie AYRE</t>
+          <t>Stephen PHIPPS</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TA130898</t>
+          <t>TA35982</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Eurocoast Triathlon club</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ian TATTERSALL</t>
+          <t>Gavin TAIT</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TA47934</t>
+          <t>TA126773</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sam GRASSO</t>
+          <t>Tony THORNTON</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TA136013</t>
+          <t>TA109579</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Northern Suburbs Triathlon Club</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Adam WICKS</t>
+          <t>Ben RYAN</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TA72316</t>
+          <t>TA131200</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Eleanor THACKREY</t>
+          <t>Gareth HOWITT</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TA141258</t>
+          <t>TA126545</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Elouise BACON</t>
+          <t>Emily KEMPSON</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TA137584</t>
+          <t>TA5798</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Harriet MACDONALD</t>
+          <t>Steve NICHOLS</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TA138934</t>
+          <t>TA103520</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Greg HILL</t>
+          <t>Craig PRINGLE</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TA6941</t>
+          <t>TA130229</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Grant MURRELL</t>
+          <t>Himanshu BHUTANI</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TA135374</t>
+          <t>TA116631</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Georgia DEGOTARDI</t>
+          <t>Brian BRADY</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TA107652</t>
+          <t>TA7104</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Northern Suburbs Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Fanny CHARLES</t>
+          <t>Jodie HILL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TA137816</t>
+          <t>TA6850</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Darren VORSTER</t>
+          <t>Darren BRADING</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TA79682</t>
+          <t>TA9215</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Ben JAMES</t>
+          <t>Sam DOUGLAS</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TA81416</t>
+          <t>TA26539</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ben LOWE</t>
+          <t>Wiebke WESSELS</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TA138064</t>
+          <t>TA141816</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2672,38 +2672,38 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Andrew HOLT</t>
+          <t>Julie JACKSON</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TA90758</t>
+          <t>TA109700</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Amy MCDONALD</t>
+          <t>Joseph SQUADRITO</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TA135868</t>
+          <t>TA112593</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2712,198 +2712,198 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Andrew MACKIE</t>
+          <t>Dan THOMAS</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TA87308</t>
+          <t>TA108518</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Ashok ANAND KUMAR</t>
+          <t>David DIBDIN</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TA143233</t>
+          <t>TA136440</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Barton CHAMPNESS</t>
+          <t>Eden STRYDOM</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TA112255</t>
+          <t>TA130976</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Ben BOYD</t>
+          <t>Adam WICKS</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TA4323</t>
+          <t>TA72316</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Ahmad AGEEZ</t>
+          <t>Ian TATTERSALL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TA114760</t>
+          <t>TA47934</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Sydney South West Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Eugene TAN</t>
+          <t>Eric POULIN</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TA118493</t>
+          <t>TA120285</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Dennis CONTEMPLACION</t>
+          <t>Mariana FOGANHOLE</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TA81210</t>
+          <t>TA125990</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>FILOZ TRIATHLON CLUB</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>David BENNEVAULT</t>
+          <t>Patrick GILMARTIN</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TA120094</t>
+          <t>TA138477</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Illawarra Triathlon Club</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>David BROMFIELD</t>
+          <t>Stephanie AYRE</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TA101020</t>
+          <t>TA130898</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>David CRADDOCK</t>
+          <t>Sam GRASSO</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TA121651</t>
+          <t>TA136013</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2912,43 +2912,43 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Danny CULLEY</t>
+          <t>Kristina KRAFT</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TA132959</t>
+          <t>TA142443</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Daniel MURRAY</t>
+          <t>Jake HUMMERSTON</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TA134419</t>
+          <t>TA7546</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2958,17 +2958,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Callum GILBERT</t>
+          <t>James QUINN-KUMAR</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TA139899</t>
+          <t>TA140077</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2978,17 +2978,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Brad PICKARD</t>
+          <t>Grant MURRELL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TA126394</t>
+          <t>TA135374</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2998,17 +2998,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Chris WARING</t>
+          <t>Fanny CHARLES</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TA9395</t>
+          <t>TA137816</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -3018,17 +3018,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Chris STEVENS</t>
+          <t>Darren VORSTER</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TA115005</t>
+          <t>TA79682</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -3038,17 +3038,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Caroline HUYNH</t>
+          <t>Jacob LIPSON</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TA130197</t>
+          <t>TA125643</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3058,17 +3058,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Catherine WALLER</t>
+          <t>Harriet MACDONALD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TA121457</t>
+          <t>TA138934</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -3078,17 +3078,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Brent GAPES</t>
+          <t>Eugene TAN</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TA116307</t>
+          <t>TA118493</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -3098,17 +3098,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Brett COLEMAN</t>
+          <t>Georgia DEGOTARDI</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TA141156</t>
+          <t>TA107652</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Northern Suburbs Triathlon Club</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -3118,17 +3118,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Bronte CALLAGHAN</t>
+          <t>Greg HILL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TA125583</t>
+          <t>TA6941</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -3138,17 +3138,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Craig ROBERTS</t>
+          <t>Christopher DYSZEL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TA129928</t>
+          <t>TA136912</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3158,17 +3158,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Daniel BARRON</t>
+          <t>Bronte CALLAGHAN</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TA36243</t>
+          <t>TA125583</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3178,12 +3178,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Dale SMITH</t>
+          <t>Brett COLEMAN</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TA107761</t>
+          <t>TA141156</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3198,17 +3198,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Christopher DYSZEL</t>
+          <t>Brent GAPES</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TA136912</t>
+          <t>TA116307</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3218,17 +3218,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Daniel MOORE</t>
+          <t>Brad PICKARD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TA79003</t>
+          <t>TA126394</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Moore Performance Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -3238,17 +3238,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Darcy ANDREWS</t>
+          <t>Ben LOWE</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TA125187</t>
+          <t>TA138064</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -3258,17 +3258,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>John VAN OMMEN</t>
+          <t>Barton CHAMPNESS</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TA68424</t>
+          <t>TA112255</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3278,17 +3278,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Jozef MCPHERSON</t>
+          <t>Ben BOYD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TA118080</t>
+          <t>TA4323</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3298,17 +3298,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Joseph HILL</t>
+          <t>Amy MCDONALD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TA114358</t>
+          <t>TA135868</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3318,17 +3318,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Matthew YAZBEK</t>
+          <t>Ahmad AGEEZ</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TA142539</t>
+          <t>TA114760</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Sydney South West Triathlon Club</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3338,17 +3338,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Matthew OSTLER</t>
+          <t>Andrew HOLT</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TA70333</t>
+          <t>TA90758</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3358,17 +3358,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Mateus WINER</t>
+          <t>Danny CULLEY</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TA139096</t>
+          <t>TA132959</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3378,17 +3378,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Manon GUNDERSON-BRIGGS</t>
+          <t>David CRADDOCK</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TA130173</t>
+          <t>TA121651</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3398,17 +3398,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lotte SIBBALD</t>
+          <t>Dennis CONTEMPLACION</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TA140895</t>
+          <t>TA81210</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>FILOZ TRIATHLON CLUB</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -3418,17 +3418,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Lorenzo RAGGHIANTI</t>
+          <t>David BROMFIELD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TA125553</t>
+          <t>TA101020</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -3438,17 +3438,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Liam THURSTON</t>
+          <t>Elouise BACON</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TA124874</t>
+          <t>TA137584</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -3458,17 +3458,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Kaine WHITELAW</t>
+          <t>Eleanor THACKREY</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TA114024</t>
+          <t>TA141258</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -3478,17 +3478,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Kane DRAPER</t>
+          <t>Dale SMITH</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TA124731</t>
+          <t>TA107761</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -3498,17 +3498,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Katie MAUDSLEY</t>
+          <t>Craig ROBERTS</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TA115549</t>
+          <t>TA129928</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -3518,17 +3518,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Julian NORTH</t>
+          <t>David BENNEVAULT</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TA22913</t>
+          <t>TA120094</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -3538,17 +3538,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Kevin SURJADI</t>
+          <t>Darcy ANDREWS</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TA128541</t>
+          <t>TA125187</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D156" t="n">
@@ -3558,17 +3558,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Larissa LAWRENCE</t>
+          <t>Daniel MURRAY</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TA143378</t>
+          <t>TA134419</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -3578,17 +3578,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Laurent SAFFRE</t>
+          <t>Daniel MOORE</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TA114234</t>
+          <t>TA79003</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -3598,17 +3598,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Leigh LAVERY</t>
+          <t>Daniel BARRON</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TA109439</t>
+          <t>TA36243</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -3618,17 +3618,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Leigh REYNOLDS</t>
+          <t>Ben JAMES</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TA93907</t>
+          <t>TA81416</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3638,17 +3638,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Jay KENNEDY</t>
+          <t>Andrew MACKIE</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TA80634</t>
+          <t>TA87308</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Engadine Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D161" t="n">
@@ -3658,17 +3658,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Jess CARSWELL</t>
+          <t>Ashok ANAND KUMAR</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TA140974</t>
+          <t>TA143233</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3678,17 +3678,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Jasmine ZAMAN</t>
+          <t>Callum GILBERT</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TA135246</t>
+          <t>TA139899</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3698,17 +3698,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Jason TURNER</t>
+          <t>Catherine WALLER</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TA132570</t>
+          <t>TA121457</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Moore Performance Triathlon Club</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3718,17 +3718,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>James QUINN-KUMAR</t>
+          <t>Caroline HUYNH</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TA140077</t>
+          <t>TA130197</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3738,12 +3738,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Jake HUMMERSTON</t>
+          <t>Chris STEVENS</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TA7546</t>
+          <t>TA115005</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3758,12 +3758,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Jacob LIPSON</t>
+          <t>Chris WARING</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TA125643</t>
+          <t>TA9395</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3778,17 +3778,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Jasmine PATANKAR</t>
+          <t>Kevin SURJADI</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TA133347</t>
+          <t>TA128541</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3798,17 +3798,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Jonathon TAN</t>
+          <t>Michael WALLIS</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TA69350</t>
+          <t>TA116051</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3818,17 +3818,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Jordan AITKEN</t>
+          <t>Michael KALUZYNSKI</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TA81593</t>
+          <t>TA121633</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Engadine Triathlon Club Inc</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3838,17 +3838,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Jesper OLSEN</t>
+          <t>Max TAYLOR</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TA133563</t>
+          <t>TA135862</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Coogee Triathlon Club</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3858,17 +3858,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Niall MURPHY</t>
+          <t>Michael CRAWFORD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TA33309</t>
+          <t>TA69039</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3878,17 +3878,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Nicholas MCWHIRTER</t>
+          <t>Max HOONHOUT</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TA141897</t>
+          <t>TA132222</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3898,17 +3898,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Michael KALUZYNSKI</t>
+          <t>Mateus WINER</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TA121633</t>
+          <t>TA139096</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3918,17 +3918,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Michael WALLIS</t>
+          <t>Matthew OSTLER</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TA116051</t>
+          <t>TA70333</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3938,17 +3938,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Max HOONHOUT</t>
+          <t>Matthew YAZBEK</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TA132222</t>
+          <t>TA142539</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -3958,17 +3958,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ryan VAN</t>
+          <t>Liam THURSTON</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TA133625</t>
+          <t>TA124874</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3978,17 +3978,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Ryan KEEVERS</t>
+          <t>Leigh REYNOLDS</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TA130937</t>
+          <t>TA93907</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3998,17 +3998,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ruben GARCIA MOHEDANO</t>
+          <t>Leigh LAVERY</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TA105924</t>
+          <t>TA109439</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -4018,17 +4018,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Rodrigo MATAMALA</t>
+          <t>Laurent SAFFRE</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TA142945</t>
+          <t>TA114234</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -4038,17 +4038,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Robert BRADLEY</t>
+          <t>Larissa LAWRENCE</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TA136663</t>
+          <t>TA143378</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -4058,17 +4058,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Rachel KENNEDY</t>
+          <t>Lotte SIBBALD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TA80635</t>
+          <t>TA140895</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Engadine Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -4078,17 +4078,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Richard ALLEN</t>
+          <t>Lorenzo RAGGHIANTI</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TA3394</t>
+          <t>TA125553</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Panthers Triathlon Club</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -4098,17 +4098,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Riley DORMAN</t>
+          <t>Manon GUNDERSON-BRIGGS</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TA142397</t>
+          <t>TA130173</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -4118,17 +4118,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Nicole JANKOWSKI</t>
+          <t>John VAN OMMEN</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TA126537</t>
+          <t>TA68424</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -4138,17 +4138,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Pete FERGUSON</t>
+          <t>Jesper OLSEN</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TA140185</t>
+          <t>TA133563</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -4158,12 +4158,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Max TAYLOR</t>
+          <t>Jess CARSWELL</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TA135862</t>
+          <t>TA140974</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4178,17 +4178,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Michael CRAWFORD</t>
+          <t>Jay KENNEDY</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TA69039</t>
+          <t>TA80634</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Engadine Triathlon Club</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -4198,17 +4198,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Neil CULKIN</t>
+          <t>Jason TURNER</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TA3463</t>
+          <t>TA132570</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -4218,17 +4218,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Nathan STONE</t>
+          <t>Jasmine ZAMAN</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TA135161</t>
+          <t>TA135246</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Coogee Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -4238,17 +4238,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sam MILLEN</t>
+          <t>Jasmine PATANKAR</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TA122737</t>
+          <t>TA133347</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>TriMob</t>
+          <t>Hills Triathlon Club</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -4258,17 +4258,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Sanjay RADHAKRISHNAN</t>
+          <t>Jonathon TAN</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TA140439</t>
+          <t>TA69350</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4278,17 +4278,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Steven WONG</t>
+          <t>Julian NORTH</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TA132300</t>
+          <t>TA22913</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -4298,17 +4298,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Stacey BUCKTON</t>
+          <t>Jozef MCPHERSON</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TA125630</t>
+          <t>TA118080</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -4318,17 +4318,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Shahan BHUIYAN</t>
+          <t>Jordan AITKEN</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TA135339</t>
+          <t>TA81593</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Engadine Triathlon Club Inc</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -4338,17 +4338,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Sean BURRELL-SINCLAIR</t>
+          <t>Joseph HILL</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TA139051</t>
+          <t>TA114358</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -4358,17 +4358,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Sally KREBS</t>
+          <t>Katie MAUDSLEY</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TA140856</t>
+          <t>TA115549</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -4378,17 +4378,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Timothy KING</t>
+          <t>Kane DRAPER</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TA138497</t>
+          <t>TA124731</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4398,17 +4398,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sybrand VAN DYK</t>
+          <t>Kaine WHITELAW</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>TA81553</t>
+          <t>TA114024</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Hills Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -4418,12 +4418,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Thomas HUGHES</t>
+          <t>Pete FERGUSON</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TA141474</t>
+          <t>TA140185</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4438,17 +4438,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Tony PERNA</t>
+          <t>Sam MILLEN</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TA83949</t>
+          <t>TA122737</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>TriMob</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -4458,17 +4458,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Tristan MACMANUS</t>
+          <t>Sally KREBS</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TA100852</t>
+          <t>TA140856</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>BRAT Triathlon Club</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -4478,17 +4478,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Vansh PATEL</t>
+          <t>Ryan KEEVERS</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TA140335</t>
+          <t>TA130937</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -4498,17 +4498,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Uma BARRETT</t>
+          <t>Ryan VAN</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TA132266</t>
+          <t>TA133625</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4518,17 +4518,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Victor HUYNH</t>
+          <t>Ruben GARCIA MOHEDANO</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TA130642</t>
+          <t>TA105924</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>BRAT Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4538,17 +4538,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Victoria JAGUSCH</t>
+          <t>Richard ALLEN</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TA140602</t>
+          <t>TA3394</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Panthers Triathlon Club</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -4558,17 +4558,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Warren EASTON</t>
+          <t>Robert BRADLEY</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TA13125</t>
+          <t>TA136663</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4578,20 +4578,500 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
+          <t>Rodrigo MATAMALA</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>TA142945</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Rachel KENNEDY</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>TA80635</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Engadine Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Riley DORMAN</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>TA142397</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Neil CULKIN</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>TA3463</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Manly Vipers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Nathan STONE</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>TA135161</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Nicholas MCWHIRTER</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>TA141897</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Panthers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Niall MURPHY</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>TA33309</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Nicole JANKOWSKI</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>TA126537</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Sean BURRELL-SINCLAIR</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>TA139051</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Thomas HUGHES</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>TA141474</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Coogee Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sybrand VAN DYK</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>TA81553</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Steven WONG</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>TA132300</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Stacey BUCKTON</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>TA125630</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Sanjay RADHAKRISHNAN</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>TA140439</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Hills Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Shahan BHUIYAN</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>TA135339</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Tony PERNA</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>TA83949</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Timothy KING</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>TA138497</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Tristan MACMANUS</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>TA100852</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Tracey PIKE</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>TA126432</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Eurocoast Triathlon club</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Uma BARRETT</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>TA132266</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Vansh PATEL</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>TA140335</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Victoria JAGUSCH</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>TA140602</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Victor HUYNH</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>TA130642</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>BRAT Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Warren EASTON</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>TA13125</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
           <t>William RUSSELL</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>TA122217</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>Warringah Triathlon Club</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D232" t="n">
         <v>0</v>
       </c>
     </row>
